--- a/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
+++ b/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/external-program/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E15C80-200E-3D4C-9CAE-AE8CAF0A4BEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{05E15C80-200E-3D4C-9CAE-AE8CAF0A4BEC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="-21160" windowWidth="38400" windowHeight="14100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="14100" windowWidth="38400" xWindow="6280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="RunBat" sheetId="3" r:id="rId2"/>
-    <sheet name="RunBackgroundBat" sheetId="4" r:id="rId3"/>
-    <sheet name="RunBat_Macros" sheetId="5" r:id="rId4"/>
+    <sheet name="#system" r:id="rId1" sheetId="1" state="hidden"/>
+    <sheet name="RunBat" r:id="rId2" sheetId="3"/>
+    <sheet name="RunBackgroundBat" r:id="rId3" sheetId="4"/>
+    <sheet name="RunBat_Macros" r:id="rId4" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
     <definedName name="step">'#system'!$V$2:$V$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$121</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
     <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
     <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="525">
   <si>
     <t>target</t>
   </si>
@@ -1635,13 +1635,20 @@
   </si>
   <si>
     <t>"" "C:\projects\MyProject\this directory has   spaces\My Batch also spaces.bat"</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1725,8 +1732,109 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1745,8 +1853,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1784,224 +2045,554 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="78">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="69">
     <dxf>
@@ -2720,10 +3311,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2887,21 +3478,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2918,7 +3509,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2972,19 +3563,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC122"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3070,7 +3661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3156,7 +3747,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3236,7 +3827,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3313,7 +3904,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3378,7 +3969,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3437,7 +4028,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3493,7 +4084,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3546,7 +4137,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3590,7 +4181,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3628,7 +4219,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3663,7 +4254,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3698,7 +4289,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>511</v>
       </c>
@@ -3733,7 +4324,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3765,7 +4356,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3794,7 +4385,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3820,7 +4411,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3840,7 +4431,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3857,7 +4448,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3874,7 +4465,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3891,7 +4482,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3905,10 +4496,10 @@
         <v>263</v>
       </c>
       <c r="W21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3925,7 +4516,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3942,7 +4533,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3959,7 +4550,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3976,7 +4567,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3990,7 +4581,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4004,7 +4595,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4018,7 +4609,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="D29" t="s">
         <v>290</v>
       </c>
@@ -4029,7 +4620,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="D30" t="s">
         <v>293</v>
       </c>
@@ -4040,7 +4631,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="D31" t="s">
         <v>296</v>
       </c>
@@ -4051,7 +4642,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="D32" t="s">
         <v>299</v>
       </c>
@@ -4062,7 +4653,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="33" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="D33" t="s">
         <v>302</v>
       </c>
@@ -4073,7 +4664,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="D34" t="s">
         <v>305</v>
       </c>
@@ -4084,7 +4675,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="D35" t="s">
         <v>308</v>
       </c>
@@ -4095,7 +4686,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="D36" t="s">
         <v>311</v>
       </c>
@@ -4106,7 +4697,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="D37" t="s">
         <v>314</v>
       </c>
@@ -4117,7 +4708,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="38" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="D38" t="s">
         <v>317</v>
       </c>
@@ -4128,7 +4719,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="F39" t="s">
         <v>320</v>
       </c>
@@ -4136,7 +4727,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="F40" t="s">
         <v>322</v>
       </c>
@@ -4144,7 +4735,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="41" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="F41" t="s">
         <v>324</v>
       </c>
@@ -4152,7 +4743,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="42" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="F42" t="s">
         <v>326</v>
       </c>
@@ -4160,7 +4751,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="F43" t="s">
         <v>328</v>
       </c>
@@ -4168,7 +4759,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="44" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="F44" t="s">
         <v>330</v>
       </c>
@@ -4176,7 +4767,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="45" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="F45" t="s">
         <v>332</v>
       </c>
@@ -4184,7 +4775,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="46" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="F46" t="s">
         <v>334</v>
       </c>
@@ -4192,7 +4783,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="F47" t="s">
         <v>336</v>
       </c>
@@ -4200,7 +4791,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="F48" t="s">
         <v>338</v>
       </c>
@@ -4208,7 +4799,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="F49" t="s">
         <v>340</v>
       </c>
@@ -4216,7 +4807,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="F50" t="s">
         <v>342</v>
       </c>
@@ -4224,7 +4815,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="F51" t="s">
         <v>344</v>
       </c>
@@ -4232,7 +4823,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="52" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="F52" t="s">
         <v>346</v>
       </c>
@@ -4240,7 +4831,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="F53" t="s">
         <v>348</v>
       </c>
@@ -4248,7 +4839,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="54" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="F54" t="s">
         <v>350</v>
       </c>
@@ -4256,7 +4847,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="F55" t="s">
         <v>352</v>
       </c>
@@ -4264,7 +4855,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="F56" t="s">
         <v>354</v>
       </c>
@@ -4272,7 +4863,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="57" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="F57" t="s">
         <v>356</v>
       </c>
@@ -4280,7 +4871,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="58" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="F58" t="s">
         <v>358</v>
       </c>
@@ -4288,7 +4879,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="59" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="F59" t="s">
         <v>360</v>
       </c>
@@ -4296,7 +4887,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="F60" t="s">
         <v>362</v>
       </c>
@@ -4304,7 +4895,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="61" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="F61" t="s">
         <v>364</v>
       </c>
@@ -4312,7 +4903,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="F62" t="s">
         <v>366</v>
       </c>
@@ -4320,7 +4911,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="63" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="F63" t="s">
         <v>368</v>
       </c>
@@ -4328,7 +4919,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="F64" t="s">
         <v>370</v>
       </c>
@@ -4336,7 +4927,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="65" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="F65" t="s">
         <v>372</v>
       </c>
@@ -4344,7 +4935,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="66" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="F66" t="s">
         <v>374</v>
       </c>
@@ -4352,7 +4943,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="F67" t="s">
         <v>376</v>
       </c>
@@ -4360,7 +4951,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="68" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="F68" t="s">
         <v>378</v>
       </c>
@@ -4368,7 +4959,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="69" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="F69" t="s">
         <v>380</v>
       </c>
@@ -4376,7 +4967,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="70" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="F70" t="s">
         <v>382</v>
       </c>
@@ -4384,7 +4975,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="71" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="F71" t="s">
         <v>384</v>
       </c>
@@ -4392,7 +4983,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="72" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="F72" t="s">
         <v>386</v>
       </c>
@@ -4400,7 +4991,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="73" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="F73" t="s">
         <v>388</v>
       </c>
@@ -4408,7 +4999,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="74" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="F74" t="s">
         <v>390</v>
       </c>
@@ -4416,7 +5007,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="F75" t="s">
         <v>392</v>
       </c>
@@ -4424,7 +5015,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="76" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="F76" t="s">
         <v>394</v>
       </c>
@@ -4432,7 +5023,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="77" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="F77" t="s">
         <v>396</v>
       </c>
@@ -4440,7 +5031,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="78" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="F78" t="s">
         <v>398</v>
       </c>
@@ -4448,7 +5039,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="79" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="F79" t="s">
         <v>400</v>
       </c>
@@ -4456,7 +5047,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="80" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="F80" t="s">
         <v>402</v>
       </c>
@@ -4464,7 +5055,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="81" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="F81" t="s">
         <v>404</v>
       </c>
@@ -4472,272 +5063,277 @@
         <v>403</v>
       </c>
     </row>
-    <row r="82" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="F82" t="s">
         <v>406</v>
       </c>
       <c r="W82" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="83" spans="6:23" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="F83" t="s">
         <v>408</v>
       </c>
       <c r="W83" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="84" spans="6:23" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="F84" t="s">
         <v>410</v>
       </c>
       <c r="W84" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="85" spans="6:23" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="F85" t="s">
         <v>412</v>
       </c>
       <c r="W85" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="86" spans="6:23" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="F86" t="s">
         <v>414</v>
       </c>
       <c r="W86" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="87" spans="6:23" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="F87" t="s">
         <v>416</v>
       </c>
       <c r="W87" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="88" spans="6:23" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="F88" t="s">
         <v>418</v>
       </c>
       <c r="W88" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="89" spans="6:23" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="F89" t="s">
         <v>420</v>
       </c>
       <c r="W89" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="90" spans="6:23" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="F90" t="s">
         <v>422</v>
       </c>
       <c r="W90" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="91" spans="6:23" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="F91" t="s">
         <v>424</v>
       </c>
       <c r="W91" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="92" spans="6:23" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="F92" t="s">
         <v>426</v>
       </c>
       <c r="W92" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="93" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="W93" t="s">
+    <row r="94">
+      <c r="W94" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="94" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="W94" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="95" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="W95" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="96" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="W96" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="97" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W97" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="98" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W98" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="99" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W99" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="100" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W100" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="101" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W101" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="102" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W102" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="103" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W103" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="104" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W104" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="105" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W105" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="106" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W106" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="107" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W107" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="108" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W108" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="109" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W109" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="110" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W110" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="111" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W111" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="112" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W112" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="113" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W113" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="114" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W114" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="115" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W115" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="116" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W116" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="117" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W117" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="118" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W118" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="119" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W119" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="120" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W120" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="121" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W121" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>455</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.83203125" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25" style="11" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.1640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="18.33203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="43.6640625" style="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="13" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="15" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="14" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="13" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9" style="9" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="20.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="47.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="11" width="33.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="11" width="25.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="11" width="34.1640625" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="11" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="12" width="43.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="13" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="15" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="14" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="13" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="1" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>456</v>
       </c>
@@ -4768,7 +5364,7 @@
       <c r="N1" s="56"/>
       <c r="O1" s="57"/>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="116" r="2" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="58" t="s">
         <v>519</v>
       </c>
@@ -4789,7 +5385,7 @@
       <c r="N2" s="61"/>
       <c r="O2" s="61"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="10" r="3" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -4806,7 +5402,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>464</v>
       </c>
@@ -4851,7 +5447,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>463</v>
       </c>
@@ -4873,7 +5469,7 @@
       <c r="K5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="6" s="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="53"/>
       <c r="B6" s="53" t="s">
         <v>478</v>
@@ -4897,7 +5493,7 @@
       <c r="N6" s="45"/>
       <c r="O6" s="33"/>
     </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="7" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>480</v>
       </c>
@@ -4924,7 +5520,7 @@
       <c r="N7" s="49"/>
       <c r="O7" s="48"/>
     </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="8" s="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="53" t="s">
         <v>478</v>
@@ -4949,7 +5545,7 @@
       <c r="N8" s="45"/>
       <c r="O8" s="33"/>
     </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="9" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>482</v>
       </c>
@@ -4976,7 +5572,7 @@
       <c r="N9" s="49"/>
       <c r="O9" s="48"/>
     </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="10" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="37"/>
       <c r="B10" s="53" t="s">
         <v>478</v>
@@ -5001,7 +5597,7 @@
       <c r="N10" s="49"/>
       <c r="O10" s="48"/>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="11" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>484</v>
       </c>
@@ -5028,7 +5624,7 @@
       <c r="N11" s="49"/>
       <c r="O11" s="48"/>
     </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="12" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
       <c r="B12" s="53" t="s">
         <v>478</v>
@@ -5053,7 +5649,7 @@
       <c r="N12" s="49"/>
       <c r="O12" s="48"/>
     </row>
-    <row r="13" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="13" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="24"/>
@@ -5070,7 +5666,7 @@
       <c r="N13" s="49"/>
       <c r="O13" s="48"/>
     </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="14" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="24"/>
@@ -5087,7 +5683,7 @@
       <c r="N14" s="49"/>
       <c r="O14" s="48"/>
     </row>
-    <row r="15" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="15" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="24"/>
@@ -5104,7 +5700,7 @@
       <c r="N15" s="49"/>
       <c r="O15" s="48"/>
     </row>
-    <row r="16" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="16" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="24"/>
@@ -5121,7 +5717,7 @@
       <c r="N16" s="49"/>
       <c r="O16" s="48"/>
     </row>
-    <row r="17" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="17" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="24"/>
@@ -5138,7 +5734,7 @@
       <c r="N17" s="49"/>
       <c r="O17" s="48"/>
     </row>
-    <row r="18" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="18" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="24"/>
@@ -5155,7 +5751,7 @@
       <c r="N18" s="49"/>
       <c r="O18" s="48"/>
     </row>
-    <row r="19" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="19" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="24"/>
@@ -5172,7 +5768,7 @@
       <c r="N19" s="49"/>
       <c r="O19" s="48"/>
     </row>
-    <row r="20" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="20" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="24"/>
@@ -5189,7 +5785,7 @@
       <c r="N20" s="49"/>
       <c r="O20" s="48"/>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="21" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="39"/>
@@ -5206,7 +5802,7 @@
       <c r="N21" s="22"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="22" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="39"/>
@@ -5223,7 +5819,7 @@
       <c r="N22" s="22"/>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="F23"/>
@@ -5234,14 +5830,14 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="F25"/>
@@ -5252,7 +5848,7 @@
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="39"/>
@@ -5265,7 +5861,7 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="F27"/>
@@ -5276,7 +5872,7 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" s="24"/>
@@ -5289,7 +5885,7 @@
       <c r="K28"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="G29"/>
       <c r="H29"/>
@@ -5298,7 +5894,7 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:15" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -5315,7 +5911,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="13"/>
     </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="31" s="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="9"/>
       <c r="C31" s="24"/>
       <c r="D31" s="25"/>
@@ -5331,7 +5927,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="13"/>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="32" s="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="9"/>
       <c r="C32" s="24"/>
       <c r="D32" s="25"/>
@@ -5347,7 +5943,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="13"/>
     </row>
-    <row r="33" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="33" s="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="9"/>
       <c r="C33" s="24"/>
       <c r="D33" s="25"/>
@@ -5363,7 +5959,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="13"/>
     </row>
-    <row r="34" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="34" s="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="9"/>
       <c r="C34" s="24"/>
       <c r="D34" s="25"/>
@@ -5379,7 +5975,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="13"/>
     </row>
-    <row r="35" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="35" s="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="9"/>
       <c r="C35" s="24"/>
       <c r="D35" s="25"/>
@@ -5395,7 +5991,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="36" s="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
       <c r="C36" s="24"/>
       <c r="D36" s="11"/>
@@ -5411,18 +6007,18 @@
       <c r="N36" s="14"/>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="37" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="38" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="39" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="40" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="41" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="42" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="43" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="44" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="45" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="46" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="47" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="48" spans="2:15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -5431,130 +6027,130 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N7">
-    <cfRule type="beginsWith" dxfId="68" priority="42" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="68" operator="beginsWith" priority="42" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N7,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="67" priority="43" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="67" operator="beginsWith" priority="43" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N7,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="66" priority="44" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="66" operator="beginsWith" priority="44" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N7,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="beginsWith" dxfId="65" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="65" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="64" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="64" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N17,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="63" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="63" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="beginsWith" dxfId="62" priority="10" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="62" operator="beginsWith" priority="10" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="61" priority="11" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="61" operator="beginsWith" priority="11" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="60" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="beginsWith" dxfId="59" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="59" operator="beginsWith" priority="7" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="58" operator="beginsWith" priority="8" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="57" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="57" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="beginsWith" dxfId="56" priority="13" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="56" operator="beginsWith" priority="13" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="55" priority="14" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="55" operator="beginsWith" priority="14" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="15" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="54" operator="beginsWith" priority="15" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:N15">
-    <cfRule type="beginsWith" dxfId="53" priority="63" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="53" operator="beginsWith" priority="63" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N7,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="64" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="52" operator="beginsWith" priority="64" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N7,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="51" priority="65" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="51" operator="beginsWith" priority="65" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N7,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N4">
-    <cfRule type="beginsWith" dxfId="50" priority="69" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="50" operator="beginsWith" priority="69" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="49" priority="70" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="49" operator="beginsWith" priority="70" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="71" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="48" operator="beginsWith" priority="71" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16 N18:N19">
-    <cfRule type="beginsWith" dxfId="47" priority="36" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="47" operator="beginsWith" priority="36" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="46" priority="37" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="46" operator="beginsWith" priority="37" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="45" priority="38" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="45" operator="beginsWith" priority="38" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C7 C9 C11 C15 C20 C26 C28 C13:C14 C16:C19 C21:C22 C31:C36" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5 C7 C9 C11 C15 C20 C26 C28 C13:C14 C16:C19 C21:C22 C31:C36" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D15 D20 D26 D28 D13:D14 D16:D19 D21:D22 D31:D35" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D15 D20 D26 D28 D13:D14 D16:D19 D21:D22 D31:D35" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="18" style="11" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18" style="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="13" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="15" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="14" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="13" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9" style="9" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="23.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="34.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="11" width="40.0" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="11" width="18.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="12" width="18.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="13" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="15" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="14" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="13" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="1" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>456</v>
       </c>
@@ -5585,7 +6181,7 @@
       <c r="N1" s="56"/>
       <c r="O1" s="57"/>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="66" r="2" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="58" t="s">
         <v>517</v>
       </c>
@@ -5606,7 +6202,7 @@
       <c r="N2" s="61"/>
       <c r="O2" s="61"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="10" r="3" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -5623,7 +6219,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>464</v>
       </c>
@@ -5668,7 +6264,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>463</v>
       </c>
@@ -5690,7 +6286,7 @@
       <c r="K5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="6" s="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="53"/>
       <c r="B6" s="53" t="s">
         <v>478</v>
@@ -5714,7 +6310,7 @@
       <c r="N6" s="45"/>
       <c r="O6" s="33"/>
     </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="7" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="24" t="s">
@@ -5737,7 +6333,7 @@
       <c r="N7" s="49"/>
       <c r="O7" s="48"/>
     </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="8" s="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="53"/>
       <c r="C8" s="10" t="s">
@@ -5760,7 +6356,7 @@
       <c r="N8" s="45"/>
       <c r="O8" s="33"/>
     </row>
-    <row r="9" spans="1:15" s="5" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="9" s="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="B9" s="53"/>
       <c r="C9" s="10" t="s">
@@ -5785,7 +6381,7 @@
       <c r="N9" s="45"/>
       <c r="O9" s="33"/>
     </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="10" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="37"/>
       <c r="B10" s="37" t="s">
         <v>490</v>
@@ -5812,7 +6408,7 @@
       <c r="N10" s="49"/>
       <c r="O10" s="48"/>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="11" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>506</v>
       </c>
@@ -5837,7 +6433,7 @@
       <c r="N11" s="49"/>
       <c r="O11" s="48"/>
     </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="12" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="24" t="s">
@@ -5860,7 +6456,7 @@
       <c r="N12" s="49"/>
       <c r="O12" s="48"/>
     </row>
-    <row r="13" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="13" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>518</v>
       </c>
@@ -5885,7 +6481,7 @@
       <c r="N13" s="49"/>
       <c r="O13" s="48"/>
     </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="14" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="24"/>
@@ -5902,7 +6498,7 @@
       <c r="N14" s="49"/>
       <c r="O14" s="48"/>
     </row>
-    <row r="15" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="15" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="24"/>
@@ -5919,7 +6515,7 @@
       <c r="N15" s="49"/>
       <c r="O15" s="48"/>
     </row>
-    <row r="16" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="16" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="24"/>
@@ -5936,7 +6532,7 @@
       <c r="N16" s="49"/>
       <c r="O16" s="48"/>
     </row>
-    <row r="17" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="17" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="24"/>
@@ -5953,7 +6549,7 @@
       <c r="N17" s="49"/>
       <c r="O17" s="48"/>
     </row>
-    <row r="18" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="18" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="24"/>
@@ -5970,7 +6566,7 @@
       <c r="N18" s="49"/>
       <c r="O18" s="48"/>
     </row>
-    <row r="19" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="19" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="24"/>
@@ -5987,7 +6583,7 @@
       <c r="N19" s="49"/>
       <c r="O19" s="48"/>
     </row>
-    <row r="20" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="20" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="24"/>
@@ -6004,7 +6600,7 @@
       <c r="N20" s="49"/>
       <c r="O20" s="48"/>
     </row>
-    <row r="21" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="21" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="24"/>
@@ -6021,7 +6617,7 @@
       <c r="N21" s="49"/>
       <c r="O21" s="48"/>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="22" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="39"/>
@@ -6038,7 +6634,7 @@
       <c r="N22" s="22"/>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="23" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="39"/>
@@ -6055,7 +6651,7 @@
       <c r="N23" s="22"/>
       <c r="O23" s="21"/>
     </row>
-    <row r="24" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="F24"/>
@@ -6066,14 +6662,14 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="F26"/>
@@ -6084,7 +6680,7 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" s="39"/>
@@ -6097,7 +6693,7 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="F28"/>
@@ -6108,7 +6704,7 @@
       <c r="K28"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29" s="24"/>
@@ -6121,7 +6717,7 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="G30"/>
       <c r="H30"/>
@@ -6130,7 +6726,7 @@
       <c r="K30"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="1:15" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -6147,7 +6743,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="13"/>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="32" s="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="9"/>
       <c r="C32" s="24"/>
       <c r="D32" s="25"/>
@@ -6163,7 +6759,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="13"/>
     </row>
-    <row r="33" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="33" s="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="9"/>
       <c r="C33" s="24"/>
       <c r="D33" s="25"/>
@@ -6179,7 +6775,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="13"/>
     </row>
-    <row r="34" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="34" s="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="9"/>
       <c r="C34" s="24"/>
       <c r="D34" s="25"/>
@@ -6195,7 +6791,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="13"/>
     </row>
-    <row r="35" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="35" s="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="9"/>
       <c r="C35" s="24"/>
       <c r="D35" s="25"/>
@@ -6211,7 +6807,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="36" s="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
       <c r="C36" s="24"/>
       <c r="D36" s="25"/>
@@ -6227,7 +6823,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="37" s="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="9"/>
       <c r="C37" s="24"/>
       <c r="D37" s="11"/>
@@ -6243,18 +6839,18 @@
       <c r="N37" s="14"/>
       <c r="O37" s="13"/>
     </row>
-    <row r="38" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="38" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="39" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="40" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="41" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="42" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="43" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="44" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="45" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="46" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="47" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="48" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="49" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -6263,131 +6859,131 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N7">
-    <cfRule type="beginsWith" dxfId="44" priority="18" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="44" operator="beginsWith" priority="18" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N7,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="43" priority="17" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="43" operator="beginsWith" priority="17" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N7,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="42" priority="16" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="42" operator="beginsWith" priority="16" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N7,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="beginsWith" dxfId="41" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="41" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N18,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="40" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N18,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="39" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="39" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N18,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="beginsWith" dxfId="38" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="38" operator="beginsWith" priority="7" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="37" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="37" operator="beginsWith" priority="8" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="36" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="36" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="beginsWith" dxfId="35" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="35" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="34" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="33" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="33" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="beginsWith" dxfId="32" priority="10" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="32" operator="beginsWith" priority="10" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="31" priority="11" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="31" operator="beginsWith" priority="11" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="30" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:N16">
-    <cfRule type="beginsWith" dxfId="29" priority="19" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="29" operator="beginsWith" priority="19" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N7,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="20" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="28" operator="beginsWith" priority="20" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N7,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="27" priority="21" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="27" operator="beginsWith" priority="21" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N7,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N4">
-    <cfRule type="beginsWith" dxfId="26" priority="24" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="26" operator="beginsWith" priority="24" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="23" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="25" operator="beginsWith" priority="23" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="22" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="24" operator="beginsWith" priority="22" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17 N19:N20">
-    <cfRule type="beginsWith" dxfId="23" priority="13" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="23" operator="beginsWith" priority="13" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="14" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="22" operator="beginsWith" priority="14" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N17,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="15" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="21" operator="beginsWith" priority="15" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C7 C10 C12 C16 C21 C27 C29 C14:C15 C17:C20 C22:C23 C32:C37" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5 C7 C10 C12 C16 C21 C27 C29 C14:C15 C17:C20 C22:C23 C32:C37" type="list" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D16 D21 D27 D29 D14:D15 D17:D20 D22:D23 D32:D36" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D16 D21 D27 D29 D14:D15 D17:D20 D22:D23 D32:D36" type="list" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.5" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="26" style="11" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="18.33203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="43.6640625" style="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="13" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="15" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="14" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="13" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9" style="9" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="16.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="34.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="11" width="23.5" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" style="11" width="26.0" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="11" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="12" width="43.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="13" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="15" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="14" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="13" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="1" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>456</v>
       </c>
@@ -6418,7 +7014,7 @@
       <c r="N1" s="56"/>
       <c r="O1" s="57"/>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="44" r="2" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="58" t="s">
         <v>516</v>
       </c>
@@ -6439,7 +7035,7 @@
       <c r="N2" s="61"/>
       <c r="O2" s="61"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="10" r="3" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -6456,7 +7052,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>464</v>
       </c>
@@ -6501,7 +7097,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>463</v>
       </c>
@@ -6527,7 +7123,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="6" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
       <c r="B6" s="3" t="s">
         <v>497</v>
@@ -6555,7 +7151,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="7" s="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="31" t="s">
         <v>478</v>
@@ -6579,7 +7175,7 @@
       <c r="N7" s="45"/>
       <c r="O7" s="33"/>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="8" s="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="B8" s="33" t="s">
         <v>501</v>
@@ -6605,7 +7201,7 @@
       <c r="N8" s="45"/>
       <c r="O8" s="33"/>
     </row>
-    <row r="9" spans="1:15" s="5" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="9" s="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="B9" s="31" t="s">
         <v>504</v>
@@ -6634,7 +7230,7 @@
       <c r="N9" s="45"/>
       <c r="O9" s="33"/>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="10" s="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>506</v>
       </c>
@@ -6659,7 +7255,7 @@
       <c r="N10" s="49"/>
       <c r="O10" s="48"/>
     </row>
-    <row r="11" spans="1:15" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="11" s="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="24" t="s">
@@ -6682,7 +7278,7 @@
       <c r="N11" s="49"/>
       <c r="O11" s="48"/>
     </row>
-    <row r="12" spans="1:15" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="12" s="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>507</v>
       </c>
@@ -6713,7 +7309,7 @@
       <c r="N12" s="49"/>
       <c r="O12" s="48"/>
     </row>
-    <row r="13" spans="1:15" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="13" s="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="24"/>
@@ -6730,7 +7326,7 @@
       <c r="N13" s="49"/>
       <c r="O13" s="48"/>
     </row>
-    <row r="14" spans="1:15" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="14" s="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="24"/>
@@ -6747,7 +7343,7 @@
       <c r="N14" s="49"/>
       <c r="O14" s="48"/>
     </row>
-    <row r="15" spans="1:15" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="15" s="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="24"/>
@@ -6764,7 +7360,7 @@
       <c r="N15" s="49"/>
       <c r="O15" s="48"/>
     </row>
-    <row r="16" spans="1:15" s="6" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="16" s="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="24"/>
@@ -6781,7 +7377,7 @@
       <c r="N16" s="49"/>
       <c r="O16" s="48"/>
     </row>
-    <row r="17" spans="1:15" s="7" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="17" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="24"/>
@@ -6798,7 +7394,7 @@
       <c r="N17" s="49"/>
       <c r="O17" s="48"/>
     </row>
-    <row r="18" spans="1:15" s="7" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="18" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="24"/>
@@ -6815,7 +7411,7 @@
       <c r="N18" s="49"/>
       <c r="O18" s="48"/>
     </row>
-    <row r="19" spans="1:15" s="7" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="23" r="19" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="24"/>
@@ -6832,7 +7428,7 @@
       <c r="N19" s="49"/>
       <c r="O19" s="48"/>
     </row>
-    <row r="20" spans="1:15" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="20" s="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="24"/>
@@ -6849,7 +7445,7 @@
       <c r="N20" s="49"/>
       <c r="O20" s="48"/>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="21" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="39"/>
@@ -6866,7 +7462,7 @@
       <c r="N21" s="22"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="22" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="39"/>
@@ -6883,7 +7479,7 @@
       <c r="N22" s="22"/>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="F23"/>
@@ -6894,14 +7490,14 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="F25"/>
@@ -6912,7 +7508,7 @@
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="39"/>
@@ -6925,7 +7521,7 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="F27"/>
@@ -6936,7 +7532,7 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" s="24"/>
@@ -6949,7 +7545,7 @@
       <c r="K28"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="G29"/>
       <c r="H29"/>
@@ -6958,7 +7554,7 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:15" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -6975,7 +7571,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="13"/>
     </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="31" s="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="9"/>
       <c r="C31" s="24"/>
       <c r="D31" s="25"/>
@@ -6991,7 +7587,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="13"/>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="32" s="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="9"/>
       <c r="C32" s="24"/>
       <c r="D32" s="25"/>
@@ -7007,7 +7603,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="13"/>
     </row>
-    <row r="33" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="33" s="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="9"/>
       <c r="C33" s="24"/>
       <c r="D33" s="25"/>
@@ -7023,7 +7619,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="13"/>
     </row>
-    <row r="34" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="34" s="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="9"/>
       <c r="C34" s="24"/>
       <c r="D34" s="25"/>
@@ -7039,7 +7635,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="13"/>
     </row>
-    <row r="35" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="35" s="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="9"/>
       <c r="C35" s="24"/>
       <c r="D35" s="25"/>
@@ -7055,7 +7651,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="2:15" s="8" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="22" r="36" s="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
       <c r="C36" s="24"/>
       <c r="D36" s="11"/>
@@ -7071,18 +7667,18 @@
       <c r="N36" s="14"/>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="37" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="38" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="39" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="40" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="41" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="42" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="43" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="44" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="45" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="46" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="47" spans="2:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="48" spans="2:15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -7091,90 +7687,90 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N17">
-    <cfRule type="beginsWith" dxfId="20" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="20" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="19" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N17,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="18" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="beginsWith" dxfId="17" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="17" operator="beginsWith" priority="7" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="16" operator="beginsWith" priority="8" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="15" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="beginsWith" dxfId="14" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="14" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="13" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="12" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="beginsWith" dxfId="11" priority="10" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="10" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="11" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="11" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N15">
-    <cfRule type="beginsWith" dxfId="8" priority="19" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="19" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N9,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="20" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="20" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N9,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="21" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="21" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N9,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N4">
-    <cfRule type="beginsWith" dxfId="5" priority="24" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="5" operator="beginsWith" priority="24" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="23" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="23" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="22" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="3" operator="beginsWith" priority="22" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16 N18:N19">
-    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="13" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="14" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="15" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C11 C15 C20 C26 C28 C13:C14 C16:C19 C21:C22 C31:C36" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5 C6 C11 C15 C20 C26 C28 C13:C14 C16:C19 C21:C22 C31:C36" type="list" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D15 D20 D26 D28 D13:D14 D16:D19 D21:D22 D31:D35" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D15 D20 D26 D28 D13:D14 D16:D19 D21:D22 D31:D35" type="list" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
+++ b/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{05E15C80-200E-3D4C-9CAE-AE8CAF0A4BEC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="14100" windowWidth="38400" xWindow="6280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="14100" windowWidth="38400" xWindow="6280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="1" state="hidden"/>
@@ -21,37 +21,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="549">
   <si>
     <t>target</t>
   </si>
@@ -1641,6 +1642,78 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1721,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1833,8 +1906,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2006,8 +2382,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -2327,12 +3162,858 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="126">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -2541,52 +4222,196 @@
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="31" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="34" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="47" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="50" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3564,9 +5389,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3586,78 +5411,81 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>511</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3672,79 +5500,82 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>512</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>38</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>41</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>42</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>43</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>44</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>45</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>46</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" t="s">
-        <v>52</v>
+      <c r="AC2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="3">
@@ -3758,1546 +5589,1618 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>56</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>58</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>59</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>514</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>64</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>66</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>67</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>68</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>69</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>70</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>71</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>72</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>73</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>74</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>75</v>
       </c>
-      <c r="AB3" t="s">
-        <v>76</v>
+      <c r="AC3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>525</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="D4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E4" t="s">
         <v>78</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>79</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>80</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>81</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>82</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>83</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>84</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>85</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>86</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>513</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>87</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>88</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>89</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>90</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>91</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>92</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>93</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>94</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>95</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>96</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>97</v>
       </c>
-      <c r="AB4" t="s">
-        <v>98</v>
+      <c r="AC4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
       </c>
       <c r="D5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E5" t="s">
         <v>100</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>101</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>102</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>103</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>104</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>105</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>106</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>107</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>108</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>109</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>110</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>111</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>112</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>113</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>114</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>115</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>116</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>117</v>
       </c>
-      <c r="AB5" t="s">
-        <v>118</v>
+      <c r="AC5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>120</v>
       </c>
       <c r="F6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G6" t="s">
         <v>121</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>122</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>123</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>30</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>124</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>125</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>126</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>127</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>128</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>129</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>130</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>131</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>132</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>133</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>134</v>
       </c>
-      <c r="AB6" t="s">
-        <v>135</v>
+      <c r="AC6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>136</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>137</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>138</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>139</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>140</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>35</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>141</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>142</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>143</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>144</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>145</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>146</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>147</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>148</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>149</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>150</v>
       </c>
-      <c r="AB7" t="s">
-        <v>151</v>
+      <c r="AC7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>152</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>153</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>154</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>155</v>
       </c>
-      <c r="J8" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8" t="s">
+        <v>543</v>
+      </c>
+      <c r="M8" t="s">
         <v>157</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>158</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>159</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>160</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>161</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>162</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>163</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>164</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>165</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>166</v>
       </c>
-      <c r="AB8" t="s">
-        <v>167</v>
+      <c r="AC8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>168</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>169</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>170</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>171</v>
       </c>
-      <c r="J9" t="s">
-        <v>172</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K9" t="s">
+        <v>156</v>
+      </c>
+      <c r="M9" t="s">
         <v>173</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>174</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>175</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>176</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>177</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>178</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>179</v>
       </c>
-      <c r="AB9" t="s">
-        <v>180</v>
+      <c r="AC9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>181</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>182</v>
       </c>
-      <c r="J10" t="s">
-        <v>183</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" t="s">
+        <v>172</v>
+      </c>
+      <c r="M10" t="s">
         <v>184</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>185</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>186</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>187</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>188</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>189</v>
       </c>
-      <c r="AB10" t="s">
-        <v>190</v>
+      <c r="AC10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>191</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>192</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>193</v>
       </c>
-      <c r="J11" t="s">
-        <v>194</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" t="s">
+        <v>544</v>
+      </c>
+      <c r="M11" t="s">
         <v>195</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>196</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>197</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>198</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>199</v>
       </c>
-      <c r="AB11" t="s">
-        <v>200</v>
+      <c r="AC11" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>201</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>202</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>203</v>
       </c>
-      <c r="J12" t="s">
-        <v>204</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="K12" t="s">
+        <v>183</v>
+      </c>
+      <c r="M12" t="s">
         <v>205</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>206</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>207</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>208</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>209</v>
       </c>
-      <c r="AB12" t="s">
-        <v>210</v>
+      <c r="AC12" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>511</v>
-      </c>
-      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
         <v>61</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>211</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>212</v>
       </c>
-      <c r="J13" t="s">
-        <v>213</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="K13" t="s">
+        <v>194</v>
+      </c>
+      <c r="M13" t="s">
         <v>214</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>215</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>216</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>217</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>218</v>
       </c>
-      <c r="AB13" t="s">
-        <v>219</v>
+      <c r="AC13" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
+        <v>511</v>
+      </c>
+      <c r="E14" t="s">
         <v>220</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>221</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>222</v>
       </c>
-      <c r="J14" t="s">
-        <v>223</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="K14" t="s">
+        <v>204</v>
+      </c>
+      <c r="M14" t="s">
         <v>224</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>225</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>226</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>227</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>228</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
         <v>229</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>230</v>
       </c>
-      <c r="J15" t="s">
-        <v>231</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="K15" t="s">
+        <v>545</v>
+      </c>
+      <c r="M15" t="s">
         <v>232</v>
       </c>
-      <c r="O15" t="s">
-        <v>233</v>
-      </c>
       <c r="P15" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q15" t="s">
         <v>234</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>235</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>236</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
         <v>237</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>238</v>
       </c>
-      <c r="J16" t="s">
-        <v>239</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="K16" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" t="s">
         <v>240</v>
       </c>
       <c r="P16" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q16" t="s">
         <v>241</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>242</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>243</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
         <v>244</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>245</v>
       </c>
-      <c r="J17" t="s">
-        <v>246</v>
-      </c>
-      <c r="W17" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="K17" t="s">
+        <v>223</v>
+      </c>
+      <c r="X17" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA17" t="s">
         <v>248</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
         <v>249</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>250</v>
       </c>
-      <c r="J18" t="s">
-        <v>251</v>
-      </c>
-      <c r="W18" t="s">
-        <v>252</v>
+      <c r="K18" t="s">
+        <v>231</v>
+      </c>
+      <c r="X18" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
         <v>253</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>254</v>
       </c>
-      <c r="J19" t="s">
-        <v>255</v>
-      </c>
-      <c r="W19" t="s">
-        <v>256</v>
+      <c r="K19" t="s">
+        <v>239</v>
+      </c>
+      <c r="X19" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
         <v>257</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>258</v>
       </c>
-      <c r="J20" t="s">
-        <v>259</v>
-      </c>
-      <c r="W20" t="s">
-        <v>260</v>
+      <c r="K20" t="s">
+        <v>246</v>
+      </c>
+      <c r="X20" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
         <v>261</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>262</v>
       </c>
-      <c r="J21" t="s">
-        <v>263</v>
-      </c>
-      <c r="W21" t="s">
-        <v>523</v>
+      <c r="K21" t="s">
+        <v>251</v>
+      </c>
+      <c r="X21" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
         <v>265</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>266</v>
       </c>
-      <c r="J22" t="s">
-        <v>267</v>
-      </c>
-      <c r="W22" t="s">
-        <v>268</v>
+      <c r="K22" t="s">
+        <v>255</v>
+      </c>
+      <c r="X22" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
         <v>269</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>270</v>
       </c>
-      <c r="J23" t="s">
-        <v>271</v>
-      </c>
-      <c r="W23" t="s">
-        <v>272</v>
+      <c r="K23" t="s">
+        <v>259</v>
+      </c>
+      <c r="X23" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
         <v>273</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>274</v>
       </c>
-      <c r="J24" t="s">
-        <v>275</v>
-      </c>
-      <c r="W24" t="s">
-        <v>276</v>
+      <c r="K24" t="s">
+        <v>263</v>
+      </c>
+      <c r="X24" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
         <v>277</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>278</v>
       </c>
-      <c r="J25" t="s">
-        <v>279</v>
-      </c>
-      <c r="W25" t="s">
-        <v>280</v>
+      <c r="K25" t="s">
+        <v>267</v>
+      </c>
+      <c r="X25" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
         <v>281</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>282</v>
       </c>
-      <c r="W26" t="s">
-        <v>283</v>
+      <c r="K26" t="s">
+        <v>271</v>
+      </c>
+      <c r="X26" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
         <v>284</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>285</v>
       </c>
-      <c r="W27" t="s">
-        <v>286</v>
+      <c r="K27" t="s">
+        <v>275</v>
+      </c>
+      <c r="X27" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>287</v>
+      </c>
+      <c r="G28" t="s">
+        <v>288</v>
+      </c>
+      <c r="K28" t="s">
+        <v>279</v>
+      </c>
+      <c r="X28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="D28" t="s">
-        <v>287</v>
-      </c>
-      <c r="F28" t="s">
-        <v>288</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="E29" t="s">
+        <v>290</v>
+      </c>
+      <c r="G29" t="s">
+        <v>291</v>
+      </c>
+      <c r="X29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="s">
-        <v>290</v>
-      </c>
-      <c r="F29" t="s">
-        <v>291</v>
-      </c>
-      <c r="W29" t="s">
+    <row r="30">
+      <c r="E30" t="s">
+        <v>293</v>
+      </c>
+      <c r="G30" t="s">
+        <v>294</v>
+      </c>
+      <c r="X30" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="s">
-        <v>293</v>
-      </c>
-      <c r="F30" t="s">
-        <v>294</v>
-      </c>
-      <c r="W30" t="s">
+    <row r="31">
+      <c r="E31" t="s">
+        <v>296</v>
+      </c>
+      <c r="G31" t="s">
+        <v>297</v>
+      </c>
+      <c r="X31" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" t="s">
-        <v>296</v>
-      </c>
-      <c r="F31" t="s">
-        <v>297</v>
-      </c>
-      <c r="W31" t="s">
+    <row r="32">
+      <c r="E32" t="s">
+        <v>299</v>
+      </c>
+      <c r="G32" t="s">
+        <v>300</v>
+      </c>
+      <c r="X32" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="s">
-        <v>299</v>
-      </c>
-      <c r="F32" t="s">
-        <v>300</v>
-      </c>
-      <c r="W32" t="s">
+    <row r="33">
+      <c r="E33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" t="s">
+        <v>547</v>
+      </c>
+      <c r="X33" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="s">
-        <v>302</v>
-      </c>
-      <c r="F33" t="s">
+    <row r="34">
+      <c r="E34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G34" t="s">
         <v>303</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X34" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>305</v>
-      </c>
-      <c r="F34" t="s">
+    <row r="35">
+      <c r="E35" t="s">
+        <v>308</v>
+      </c>
+      <c r="G35" t="s">
         <v>306</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X35" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="s">
-        <v>308</v>
-      </c>
-      <c r="F35" t="s">
+    <row r="36">
+      <c r="E36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" t="s">
         <v>309</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>311</v>
-      </c>
-      <c r="F36" t="s">
+    <row r="37">
+      <c r="E37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" t="s">
         <v>312</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X37" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="s">
-        <v>314</v>
-      </c>
-      <c r="F37" t="s">
+    <row r="38">
+      <c r="E38" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" t="s">
         <v>315</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X38" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="s">
-        <v>317</v>
-      </c>
-      <c r="F38" t="s">
+    <row r="39">
+      <c r="G39" t="s">
         <v>318</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X39" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="s">
+    <row r="40">
+      <c r="G40" t="s">
         <v>320</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X40" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" t="s">
+    <row r="41">
+      <c r="G41" t="s">
         <v>322</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X41" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" t="s">
+    <row r="42">
+      <c r="G42" t="s">
         <v>324</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X42" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" t="s">
+    <row r="43">
+      <c r="G43" t="s">
         <v>326</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X43" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="43">
-      <c r="F43" t="s">
+    <row r="44">
+      <c r="G44" t="s">
         <v>328</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="44">
-      <c r="F44" t="s">
+    <row r="45">
+      <c r="G45" t="s">
         <v>330</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X45" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="45">
-      <c r="F45" t="s">
+    <row r="46">
+      <c r="G46" t="s">
         <v>332</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X46" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" t="s">
+    <row r="47">
+      <c r="G47" t="s">
         <v>334</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X47" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="s">
+    <row r="48">
+      <c r="G48" t="s">
         <v>336</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X48" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" t="s">
+    <row r="49">
+      <c r="G49" t="s">
         <v>338</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X49" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="s">
+    <row r="50">
+      <c r="G50" t="s">
         <v>340</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X50" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="50">
-      <c r="F50" t="s">
+    <row r="51">
+      <c r="G51" t="s">
         <v>342</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X51" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="51">
-      <c r="F51" t="s">
+    <row r="52">
+      <c r="G52" t="s">
         <v>344</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X52" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="52">
-      <c r="F52" t="s">
+    <row r="53">
+      <c r="G53" t="s">
         <v>346</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X53" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="53">
-      <c r="F53" t="s">
+    <row r="54">
+      <c r="G54" t="s">
         <v>348</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X54" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="54">
-      <c r="F54" t="s">
+    <row r="55">
+      <c r="G55" t="s">
         <v>350</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X55" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="55">
-      <c r="F55" t="s">
+    <row r="56">
+      <c r="G56" t="s">
         <v>352</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X56" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="56">
-      <c r="F56" t="s">
+    <row r="57">
+      <c r="G57" t="s">
         <v>354</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X57" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="57">
-      <c r="F57" t="s">
+    <row r="58">
+      <c r="G58" t="s">
         <v>356</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X58" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="58">
-      <c r="F58" t="s">
+    <row r="59">
+      <c r="G59" t="s">
         <v>358</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X59" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="59">
-      <c r="F59" t="s">
+    <row r="60">
+      <c r="G60" t="s">
         <v>360</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X60" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="60">
-      <c r="F60" t="s">
+    <row r="61">
+      <c r="G61" t="s">
         <v>362</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X61" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="61">
-      <c r="F61" t="s">
+    <row r="62">
+      <c r="G62" t="s">
         <v>364</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X62" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="62">
-      <c r="F62" t="s">
+    <row r="63">
+      <c r="G63" t="s">
         <v>366</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X63" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="63">
-      <c r="F63" t="s">
+    <row r="64">
+      <c r="G64" t="s">
         <v>368</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X64" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="64">
-      <c r="F64" t="s">
+    <row r="65">
+      <c r="G65" t="s">
         <v>370</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X65" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="65">
-      <c r="F65" t="s">
+    <row r="66">
+      <c r="G66" t="s">
         <v>372</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X66" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="66">
-      <c r="F66" t="s">
+    <row r="67">
+      <c r="G67" t="s">
         <v>374</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X67" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="67">
-      <c r="F67" t="s">
+    <row r="68">
+      <c r="G68" t="s">
         <v>376</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X68" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="68">
-      <c r="F68" t="s">
+    <row r="69">
+      <c r="G69" t="s">
         <v>378</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X69" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="69">
-      <c r="F69" t="s">
+    <row r="70">
+      <c r="G70" t="s">
         <v>380</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X70" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" t="s">
+    <row r="71">
+      <c r="G71" t="s">
         <v>382</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X71" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="71">
-      <c r="F71" t="s">
+    <row r="72">
+      <c r="G72" t="s">
         <v>384</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X72" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="72">
-      <c r="F72" t="s">
+    <row r="73">
+      <c r="G73" t="s">
         <v>386</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X73" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="73">
-      <c r="F73" t="s">
+    <row r="74">
+      <c r="G74" t="s">
+        <v>548</v>
+      </c>
+      <c r="X74" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="G75" t="s">
         <v>388</v>
       </c>
-      <c r="W73" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="F74" t="s">
+      <c r="X75" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="G76" t="s">
         <v>390</v>
       </c>
-      <c r="W74" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" t="s">
+      <c r="X76" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="G77" t="s">
         <v>392</v>
       </c>
-      <c r="W75" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="F76" t="s">
+      <c r="X77" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="G78" t="s">
         <v>394</v>
       </c>
-      <c r="W76" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="F77" t="s">
+      <c r="X78" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="G79" t="s">
         <v>396</v>
       </c>
-      <c r="W77" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="F78" t="s">
+      <c r="X79" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="G80" t="s">
         <v>398</v>
       </c>
-      <c r="W78" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="F79" t="s">
+      <c r="X80" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81" t="s">
         <v>400</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X81" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="80">
-      <c r="F80" t="s">
+    <row r="82">
+      <c r="G82" t="s">
         <v>402</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X82" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="81">
-      <c r="F81" t="s">
+    <row r="83">
+      <c r="G83" t="s">
         <v>404</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X83" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="82">
-      <c r="F82" t="s">
+    <row r="84">
+      <c r="G84" t="s">
         <v>406</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X84" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="83">
-      <c r="F83" t="s">
+    <row r="85">
+      <c r="G85" t="s">
         <v>408</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X85" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="84">
-      <c r="F84" t="s">
+    <row r="86">
+      <c r="G86" t="s">
         <v>410</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X86" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="85">
-      <c r="F85" t="s">
+    <row r="87">
+      <c r="G87" t="s">
         <v>412</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X87" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="86">
-      <c r="F86" t="s">
+    <row r="88">
+      <c r="G88" t="s">
         <v>414</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X88" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="87">
-      <c r="F87" t="s">
+    <row r="89">
+      <c r="G89" t="s">
         <v>416</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X89" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="88">
-      <c r="F88" t="s">
+    <row r="90">
+      <c r="G90" t="s">
         <v>418</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X90" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="89">
-      <c r="F89" t="s">
+    <row r="91">
+      <c r="G91" t="s">
         <v>420</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X91" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="90">
-      <c r="F90" t="s">
+    <row r="92">
+      <c r="G92" t="s">
         <v>422</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X92" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="91">
-      <c r="F91" t="s">
+    <row r="93">
+      <c r="G93" t="s">
         <v>424</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X93" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="92">
-      <c r="F92" t="s">
+    <row r="94">
+      <c r="G94" t="s">
         <v>426</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X94" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="93">
-      <c r="W93" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="94">
-      <c r="W94" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="95">
-      <c r="W95" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="96">
-      <c r="W96" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="97">
-      <c r="W97" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="98">
-      <c r="W98" t="s">
+    <row r="100">
+      <c r="X100" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="X101" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="99">
-      <c r="W99" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="100">
-      <c r="W100" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="101">
-      <c r="W101" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="102">
-      <c r="W102" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="103">
-      <c r="W103" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="104">
-      <c r="W104" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="105">
-      <c r="W105" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="106">
-      <c r="W106" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="107">
-      <c r="W107" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="108">
-      <c r="W108" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="109">
-      <c r="W109" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="110">
-      <c r="W110" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="111">
-      <c r="W111" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="112">
-      <c r="W112" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="113">
-      <c r="W113" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="114">
-      <c r="W114" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="115">
-      <c r="W115" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="116">
-      <c r="W116" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="117">
-      <c r="W117" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="118">
-      <c r="W118" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="119">
-      <c r="W119" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="120">
-      <c r="W120" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="121">
-      <c r="W121" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="122">
-      <c r="W122" t="s">
+    <row r="125">
+      <c r="X125" t="s">
         <v>455</v>
       </c>
     </row>
@@ -6130,7 +8033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -6962,7 +8865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
+++ b/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="551">
   <si>
     <t>target</t>
   </si>
@@ -1714,6 +1714,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1727,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="108" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2209,8 +2215,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="172">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2841,8 +3049,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4008,12 +4556,576 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -4366,52 +5478,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="66" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="78" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="79" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="82" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="144" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="147" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="153" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="159" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="162" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="165" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="165" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5389,7 +6597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7081,126 +8289,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>431</v>
+        <v>549</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>433</v>
+        <v>550</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>455</v>
       </c>
     </row>

--- a/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
+++ b/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
@@ -32,27 +32,28 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4807" uniqueCount="558">
   <si>
     <t>target</t>
   </si>
@@ -1720,6 +1721,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1749,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="108" x14ac:knownFonts="1">
+  <fonts count="140" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2417,8 +2439,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="172">
+  <fills count="232">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3389,8 +3613,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5120,12 +5684,576 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="190">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -5574,52 +6702,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="144" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="144" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="147" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="147" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="95" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="153" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="153" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="98" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="159" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="159" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="162" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="162" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="165" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="165" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="165" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="165" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="174" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="177" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="180" fontId="111" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="183" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="186" fontId="114" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="189" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="192" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="195" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="195" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="204" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="207" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="210" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="213" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="219" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="222" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="225" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="225" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6597,7 +7821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6649,51 +7873,54 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>551</v>
+      </c>
+      <c r="O1" t="s">
         <v>511</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6738,51 +7965,54 @@
         <v>37</v>
       </c>
       <c r="N2" t="s">
+        <v>552</v>
+      </c>
+      <c r="O2" t="s">
         <v>512</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>40</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>44</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>46</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6827,45 +8057,48 @@
         <v>63</v>
       </c>
       <c r="N3" t="s">
+        <v>553</v>
+      </c>
+      <c r="O3" t="s">
         <v>514</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>65</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>66</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>67</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>68</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>69</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>70</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>71</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>72</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>73</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>74</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>75</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6907,45 +8140,48 @@
         <v>86</v>
       </c>
       <c r="N4" t="s">
+        <v>554</v>
+      </c>
+      <c r="O4" t="s">
         <v>513</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>87</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>88</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>89</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>90</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>91</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>92</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>93</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>94</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>95</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>96</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>75</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>97</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6980,40 +8216,43 @@
       <c r="M5" t="s">
         <v>106</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q5" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>108</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>109</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>110</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>111</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>112</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>113</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>114</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>115</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>116</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>117</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -7045,37 +8284,40 @@
       <c r="M6" t="s">
         <v>124</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q6" t="s">
         <v>125</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>126</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>127</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>128</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>129</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>130</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>131</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>132</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>133</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>134</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7101,37 +8343,40 @@
       <c r="M7" t="s">
         <v>35</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q7" t="s">
         <v>141</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>142</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>143</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>144</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>145</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>146</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>147</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>148</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>149</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>150</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7157,34 +8402,34 @@
       <c r="M8" t="s">
         <v>157</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>158</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>159</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>160</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>161</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>163</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>164</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>165</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>166</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7210,25 +8455,25 @@
       <c r="M9" t="s">
         <v>173</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>174</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>175</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>176</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>177</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>178</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>179</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7251,22 +8496,22 @@
       <c r="M10" t="s">
         <v>184</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>185</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>186</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>187</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>188</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>189</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7289,19 +8534,19 @@
       <c r="M11" t="s">
         <v>195</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>196</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>197</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>198</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>199</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>535</v>
       </c>
     </row>
@@ -7324,19 +8569,19 @@
       <c r="M12" t="s">
         <v>205</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>206</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>207</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>208</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>209</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>536</v>
       </c>
     </row>
@@ -7359,25 +8604,25 @@
       <c r="M13" t="s">
         <v>214</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>215</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>216</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>217</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>218</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>551</v>
       </c>
       <c r="E14" t="s">
         <v>220</v>
@@ -7394,25 +8639,25 @@
       <c r="M14" t="s">
         <v>224</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>225</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>226</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>227</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>228</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>511</v>
       </c>
       <c r="E15" t="s">
         <v>229</v>
@@ -7426,25 +8671,25 @@
       <c r="M15" t="s">
         <v>232</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>530</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>234</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>235</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>236</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>237</v>
@@ -7458,25 +8703,25 @@
       <c r="M16" t="s">
         <v>240</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>531</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>241</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>242</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>243</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>244</v>
@@ -7487,19 +8732,19 @@
       <c r="K17" t="s">
         <v>223</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>532</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>248</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
         <v>249</v>
@@ -7510,16 +8755,16 @@
       <c r="K18" t="s">
         <v>231</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>247</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>253</v>
@@ -7530,16 +8775,16 @@
       <c r="K19" t="s">
         <v>239</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>252</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
         <v>257</v>
@@ -7550,16 +8795,16 @@
       <c r="K20" t="s">
         <v>246</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>256</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
         <v>261</v>
@@ -7570,16 +8815,16 @@
       <c r="K21" t="s">
         <v>251</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>260</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
         <v>265</v>
@@ -7590,13 +8835,13 @@
       <c r="K22" t="s">
         <v>255</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
         <v>269</v>
@@ -7607,13 +8852,13 @@
       <c r="K23" t="s">
         <v>259</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
         <v>273</v>
@@ -7624,13 +8869,13 @@
       <c r="K24" t="s">
         <v>263</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
         <v>277</v>
@@ -7641,13 +8886,13 @@
       <c r="K25" t="s">
         <v>267</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
         <v>281</v>
@@ -7658,13 +8903,13 @@
       <c r="K26" t="s">
         <v>271</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
         <v>284</v>
@@ -7675,13 +8920,13 @@
       <c r="K27" t="s">
         <v>275</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
         <v>287</v>
@@ -7692,13 +8937,13 @@
       <c r="K28" t="s">
         <v>279</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
         <v>290</v>
@@ -7706,18 +8951,21 @@
       <c r="G29" t="s">
         <v>291</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
       <c r="E30" t="s">
         <v>293</v>
       </c>
       <c r="G30" t="s">
         <v>294</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>292</v>
       </c>
     </row>
@@ -7728,7 +8976,7 @@
       <c r="G31" t="s">
         <v>297</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7739,7 +8987,7 @@
       <c r="G32" t="s">
         <v>300</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>298</v>
       </c>
     </row>
@@ -7750,7 +8998,7 @@
       <c r="G33" t="s">
         <v>547</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>301</v>
       </c>
     </row>
@@ -7761,7 +9009,7 @@
       <c r="G34" t="s">
         <v>303</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>304</v>
       </c>
     </row>
@@ -7772,7 +9020,7 @@
       <c r="G35" t="s">
         <v>306</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7783,7 +9031,7 @@
       <c r="G36" t="s">
         <v>309</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7794,7 +9042,7 @@
       <c r="G37" t="s">
         <v>312</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7805,7 +9053,7 @@
       <c r="G38" t="s">
         <v>315</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7813,7 +9061,7 @@
       <c r="G39" t="s">
         <v>318</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>319</v>
       </c>
     </row>
@@ -7821,7 +9069,7 @@
       <c r="G40" t="s">
         <v>320</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7829,7 +9077,7 @@
       <c r="G41" t="s">
         <v>322</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7837,7 +9085,7 @@
       <c r="G42" t="s">
         <v>324</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7845,7 +9093,7 @@
       <c r="G43" t="s">
         <v>326</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7853,7 +9101,7 @@
       <c r="G44" t="s">
         <v>328</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7861,7 +9109,7 @@
       <c r="G45" t="s">
         <v>330</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7869,7 +9117,7 @@
       <c r="G46" t="s">
         <v>332</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>333</v>
       </c>
     </row>
@@ -7877,7 +9125,7 @@
       <c r="G47" t="s">
         <v>334</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>335</v>
       </c>
     </row>
@@ -7885,7 +9133,7 @@
       <c r="G48" t="s">
         <v>336</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7893,7 +9141,7 @@
       <c r="G49" t="s">
         <v>338</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7901,7 +9149,7 @@
       <c r="G50" t="s">
         <v>340</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7909,7 +9157,7 @@
       <c r="G51" t="s">
         <v>342</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>343</v>
       </c>
     </row>
@@ -7917,7 +9165,7 @@
       <c r="G52" t="s">
         <v>344</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7925,7 +9173,7 @@
       <c r="G53" t="s">
         <v>346</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7933,7 +9181,7 @@
       <c r="G54" t="s">
         <v>348</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>347</v>
       </c>
     </row>
@@ -7941,7 +9189,7 @@
       <c r="G55" t="s">
         <v>350</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>349</v>
       </c>
     </row>
@@ -7949,7 +9197,7 @@
       <c r="G56" t="s">
         <v>352</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>351</v>
       </c>
     </row>
@@ -7957,7 +9205,7 @@
       <c r="G57" t="s">
         <v>354</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>353</v>
       </c>
     </row>
@@ -7965,7 +9213,7 @@
       <c r="G58" t="s">
         <v>356</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7973,7 +9221,7 @@
       <c r="G59" t="s">
         <v>358</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>357</v>
       </c>
     </row>
@@ -7981,7 +9229,7 @@
       <c r="G60" t="s">
         <v>360</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7989,7 +9237,7 @@
       <c r="G61" t="s">
         <v>362</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7997,7 +9245,7 @@
       <c r="G62" t="s">
         <v>364</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8005,7 +9253,7 @@
       <c r="G63" t="s">
         <v>366</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8013,7 +9261,7 @@
       <c r="G64" t="s">
         <v>368</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>367</v>
       </c>
     </row>
@@ -8021,7 +9269,7 @@
       <c r="G65" t="s">
         <v>370</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8029,7 +9277,7 @@
       <c r="G66" t="s">
         <v>372</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8037,7 +9285,7 @@
       <c r="G67" t="s">
         <v>374</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8045,7 +9293,7 @@
       <c r="G68" t="s">
         <v>376</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8053,7 +9301,7 @@
       <c r="G69" t="s">
         <v>378</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8061,7 +9309,7 @@
       <c r="G70" t="s">
         <v>380</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>379</v>
       </c>
     </row>
@@ -8069,7 +9317,7 @@
       <c r="G71" t="s">
         <v>382</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>381</v>
       </c>
     </row>
@@ -8077,7 +9325,7 @@
       <c r="G72" t="s">
         <v>384</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>383</v>
       </c>
     </row>
@@ -8085,7 +9333,7 @@
       <c r="G73" t="s">
         <v>386</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>385</v>
       </c>
     </row>
@@ -8093,7 +9341,7 @@
       <c r="G74" t="s">
         <v>548</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>387</v>
       </c>
     </row>
@@ -8101,7 +9349,7 @@
       <c r="G75" t="s">
         <v>388</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>389</v>
       </c>
     </row>
@@ -8109,7 +9357,7 @@
       <c r="G76" t="s">
         <v>390</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8117,7 +9365,7 @@
       <c r="G77" t="s">
         <v>392</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8125,7 +9373,7 @@
       <c r="G78" t="s">
         <v>394</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8133,7 +9381,7 @@
       <c r="G79" t="s">
         <v>396</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8141,7 +9389,7 @@
       <c r="G80" t="s">
         <v>398</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>533</v>
       </c>
     </row>
@@ -8149,7 +9397,7 @@
       <c r="G81" t="s">
         <v>400</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8157,7 +9405,7 @@
       <c r="G82" t="s">
         <v>402</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8165,7 +9413,7 @@
       <c r="G83" t="s">
         <v>404</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8173,7 +9421,7 @@
       <c r="G84" t="s">
         <v>406</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>524</v>
       </c>
     </row>
@@ -8181,7 +9429,7 @@
       <c r="G85" t="s">
         <v>408</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>405</v>
       </c>
     </row>
@@ -8189,7 +9437,7 @@
       <c r="G86" t="s">
         <v>410</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>407</v>
       </c>
     </row>
@@ -8197,7 +9445,7 @@
       <c r="G87" t="s">
         <v>412</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>409</v>
       </c>
     </row>
@@ -8205,7 +9453,7 @@
       <c r="G88" t="s">
         <v>414</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>411</v>
       </c>
     </row>
@@ -8213,7 +9461,7 @@
       <c r="G89" t="s">
         <v>416</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>413</v>
       </c>
     </row>
@@ -8221,7 +9469,7 @@
       <c r="G90" t="s">
         <v>418</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>415</v>
       </c>
     </row>
@@ -8229,7 +9477,7 @@
       <c r="G91" t="s">
         <v>420</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>417</v>
       </c>
     </row>
@@ -8237,7 +9485,7 @@
       <c r="G92" t="s">
         <v>422</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>419</v>
       </c>
     </row>
@@ -8245,7 +9493,7 @@
       <c r="G93" t="s">
         <v>424</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>421</v>
       </c>
     </row>
@@ -8253,172 +9501,172 @@
       <c r="G94" t="s">
         <v>426</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>455</v>
       </c>
     </row>

--- a/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
+++ b/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
@@ -53,7 +53,7 @@
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4807" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7471" uniqueCount="565">
   <si>
     <t>target</t>
   </si>
@@ -1742,6 +1742,27 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>exportExcel(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1770,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="140" x14ac:knownFonts="1">
+  <fonts count="220" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2641,8 +2662,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="232">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3953,8 +4479,858 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -6248,12 +7624,1422 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="270">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -6798,52 +9584,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="204" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="204" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="207" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="207" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="210" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="210" fontId="127" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="213" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="213" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="130" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="219" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="219" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="222" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="222" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="225" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="225" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="225" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="225" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="228" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="234" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="237" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="240" fontId="143" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="243" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="146" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="249" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="252" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="255" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="255" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="264" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="267" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="270" fontId="159" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="273" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="162" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="279" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="282" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="285" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="285" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="294" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="297" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="300" fontId="175" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="303" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="306" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="309" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="312" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="315" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="315" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="324" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="327" fontId="190" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="330" fontId="191" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="333" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="336" fontId="194" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="339" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="342" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="345" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="345" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="348" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="354" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="357" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="360" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="363" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="369" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="372" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="375" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="375" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8217,7 +11243,7 @@
         <v>106</v>
       </c>
       <c r="N5" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="Q5" t="s">
         <v>107</v>
@@ -8285,7 +11311,7 @@
         <v>124</v>
       </c>
       <c r="N6" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Q6" t="s">
         <v>125</v>
@@ -8344,7 +11370,7 @@
         <v>35</v>
       </c>
       <c r="N7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Q7" t="s">
         <v>141</v>
@@ -8402,6 +11428,9 @@
       <c r="M8" t="s">
         <v>157</v>
       </c>
+      <c r="N8" t="s">
+        <v>560</v>
+      </c>
       <c r="Q8" t="s">
         <v>158</v>
       </c>
@@ -8455,6 +11484,9 @@
       <c r="M9" t="s">
         <v>173</v>
       </c>
+      <c r="N9" t="s">
+        <v>563</v>
+      </c>
       <c r="Q9" t="s">
         <v>174</v>
       </c>
@@ -8496,6 +11528,9 @@
       <c r="M10" t="s">
         <v>184</v>
       </c>
+      <c r="N10" t="s">
+        <v>555</v>
+      </c>
       <c r="Q10" t="s">
         <v>185</v>
       </c>
@@ -8534,6 +11569,9 @@
       <c r="M11" t="s">
         <v>195</v>
       </c>
+      <c r="N11" t="s">
+        <v>556</v>
+      </c>
       <c r="Q11" t="s">
         <v>196</v>
       </c>
@@ -8569,6 +11607,9 @@
       <c r="M12" t="s">
         <v>205</v>
       </c>
+      <c r="N12" t="s">
+        <v>557</v>
+      </c>
       <c r="Q12" t="s">
         <v>206</v>
       </c>
@@ -8884,7 +11925,7 @@
         <v>278</v>
       </c>
       <c r="K25" t="s">
-        <v>267</v>
+        <v>561</v>
       </c>
       <c r="Y25" t="s">
         <v>276</v>
@@ -8901,7 +11942,7 @@
         <v>282</v>
       </c>
       <c r="K26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Y26" t="s">
         <v>280</v>
@@ -8918,7 +11959,7 @@
         <v>285</v>
       </c>
       <c r="K27" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Y27" t="s">
         <v>283</v>
@@ -8935,7 +11976,7 @@
         <v>288</v>
       </c>
       <c r="K28" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Y28" t="s">
         <v>286</v>
@@ -8950,6 +11991,9 @@
       </c>
       <c r="G29" t="s">
         <v>291</v>
+      </c>
+      <c r="K29" t="s">
+        <v>279</v>
       </c>
       <c r="Y29" t="s">
         <v>289</v>

--- a/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
+++ b/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
@@ -52,7 +52,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7471" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8006" uniqueCount="566">
   <si>
     <t>target</t>
   </si>
@@ -1763,6 +1763,9 @@
   </si>
   <si>
     <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1773,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="220" x14ac:knownFonts="1">
+  <fonts count="236" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3167,8 +3170,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="412">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5329,8 +5433,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -9034,12 +9308,294 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="286">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -9824,52 +10380,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="354" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="354" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="357" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="357" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="360" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="360" fontId="207" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="363" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="363" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="210" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="369" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="369" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="372" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="372" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="375" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="375" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="375" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="375" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="384" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="387" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="390" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="393" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="399" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="402" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="405" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="405" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11053,7 +11657,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>527</v>
+        <v>565</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -11136,7 +11740,7 @@
         <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E4" t="s">
         <v>78</v>
@@ -11219,7 +11823,7 @@
         <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E5" t="s">
         <v>100</v>
@@ -11288,6 +11892,9 @@
       </c>
       <c r="B6" t="s">
         <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>529</v>
       </c>
       <c r="E6" t="s">
         <v>120</v>

--- a/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
+++ b/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8006" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9076" uniqueCount="567">
   <si>
     <t>target</t>
   </si>
@@ -1766,6 +1766,9 @@
   </si>
   <si>
     <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1776,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="236" x14ac:knownFonts="1">
+  <fonts count="268" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3271,8 +3274,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="412">
+  <fills count="472">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5603,8 +5808,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9590,12 +10135,576 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="318">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -10428,52 +11537,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="384" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="384" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="387" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="387" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="390" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="390" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="393" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="393" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="399" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="399" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="402" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="402" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="405" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="405" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="405" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="405" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="414" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="417" fontId="238" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="420" fontId="239" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="423" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="426" fontId="242" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="429" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="432" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="435" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="435" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="438" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="444" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="447" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="450" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="453" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="459" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="462" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="465" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="465" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12532,7 +13737,7 @@
         <v>278</v>
       </c>
       <c r="K25" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="Y25" t="s">
         <v>276</v>

--- a/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
+++ b/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
@@ -21,17 +21,17 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -45,15 +45,16 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9076" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11280" uniqueCount="585">
   <si>
     <t>target</t>
   </si>
@@ -1769,6 +1770,60 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1831,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="268" x14ac:knownFonts="1">
+  <fonts count="332" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3476,8 +3531,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="472">
+  <fills count="580">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6148,8 +6607,620 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="579">
     <border>
       <left/>
       <right/>
@@ -10699,12 +11770,1316 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="382">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -11633,52 +14008,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="444" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="444" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="447" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="447" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="450" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="450" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="453" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="453" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="456" fontId="258" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="260" fillId="459" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="261" fillId="462" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="262" fillId="465" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="263" fillId="465" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="264" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="265" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="266" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="267" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="459" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="462" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="465" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="465" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="453" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="468" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="453" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="474" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="477" fontId="270" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="480" fontId="271" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="483" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="274" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="489" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="480" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="492" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="492" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="495" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="498" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="501" fontId="284" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="504" fontId="286" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="507" fontId="287" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="510" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="289" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="290" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="516" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="507" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="519" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="519" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="510" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="510" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="525" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="528" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="531" fontId="302" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="534" fontId="303" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="537" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="305" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="306" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="543" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="534" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="546" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="546" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="555" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="558" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="561" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="564" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="570" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="561" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="573" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="573" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12656,7 +15223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12741,21 +15308,24 @@
         <v>20</v>
       </c>
       <c r="Y1" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -12833,21 +15403,24 @@
         <v>46</v>
       </c>
       <c r="Y2" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z2" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>534</v>
       </c>
     </row>
@@ -12918,22 +15491,22 @@
       <c r="X3" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>71</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>72</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>74</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>75</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -13001,22 +15574,22 @@
       <c r="X4" t="s">
         <v>93</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>94</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>95</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>96</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>97</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -13042,6 +15615,9 @@
       <c r="H5" t="s">
         <v>103</v>
       </c>
+      <c r="I5" t="s">
+        <v>569</v>
+      </c>
       <c r="J5" t="s">
         <v>104</v>
       </c>
@@ -13072,22 +15648,22 @@
       <c r="W5" t="s">
         <v>112</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>113</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>114</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>115</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>116</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>117</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -13140,22 +15716,22 @@
       <c r="W6" t="s">
         <v>129</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>130</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>131</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>132</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>133</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>134</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -13175,6 +15751,9 @@
       <c r="H7" t="s">
         <v>139</v>
       </c>
+      <c r="J7" t="s">
+        <v>570</v>
+      </c>
       <c r="K7" t="s">
         <v>140</v>
       </c>
@@ -13199,23 +15778,23 @@
       <c r="W7" t="s">
         <v>145</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>146</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>147</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>148</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>149</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>150</v>
       </c>
-      <c r="AD7" t="s">
-        <v>135</v>
+      <c r="AE7" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="8">
@@ -13255,23 +15834,23 @@
       <c r="W8" t="s">
         <v>161</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>162</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>163</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>164</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>165</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>166</v>
       </c>
-      <c r="AD8" t="s">
-        <v>151</v>
+      <c r="AE8" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="9">
@@ -13311,14 +15890,14 @@
       <c r="W9" t="s">
         <v>177</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>178</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>179</v>
       </c>
-      <c r="AD9" t="s">
-        <v>167</v>
+      <c r="AE9" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="10">
@@ -13352,14 +15931,14 @@
       <c r="T10" t="s">
         <v>187</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>188</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>189</v>
       </c>
-      <c r="AD10" t="s">
-        <v>180</v>
+      <c r="AE10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="11">
@@ -13390,14 +15969,14 @@
       <c r="R11" t="s">
         <v>197</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>198</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>199</v>
       </c>
-      <c r="AD11" t="s">
-        <v>535</v>
+      <c r="AE11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -13417,7 +15996,7 @@
         <v>183</v>
       </c>
       <c r="M12" t="s">
-        <v>205</v>
+        <v>571</v>
       </c>
       <c r="N12" t="s">
         <v>557</v>
@@ -13428,14 +16007,14 @@
       <c r="R12" t="s">
         <v>207</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>208</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>209</v>
       </c>
-      <c r="AD12" t="s">
-        <v>536</v>
+      <c r="AE12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="13">
@@ -13455,7 +16034,7 @@
         <v>194</v>
       </c>
       <c r="M13" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="Q13" t="s">
         <v>215</v>
@@ -13463,14 +16042,14 @@
       <c r="R13" t="s">
         <v>216</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>217</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>218</v>
       </c>
-      <c r="AD13" t="s">
-        <v>537</v>
+      <c r="AE13" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -13490,7 +16069,7 @@
         <v>204</v>
       </c>
       <c r="M14" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="Q14" t="s">
         <v>225</v>
@@ -13498,14 +16077,14 @@
       <c r="R14" t="s">
         <v>226</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>227</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>228</v>
       </c>
-      <c r="AD14" t="s">
-        <v>538</v>
+      <c r="AE14" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="15">
@@ -13522,7 +16101,7 @@
         <v>545</v>
       </c>
       <c r="M15" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Q15" t="s">
         <v>530</v>
@@ -13530,14 +16109,14 @@
       <c r="R15" t="s">
         <v>234</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>235</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>236</v>
       </c>
-      <c r="AD15" t="s">
-        <v>190</v>
+      <c r="AE15" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="16">
@@ -13554,7 +16133,7 @@
         <v>213</v>
       </c>
       <c r="M16" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="Q16" t="s">
         <v>531</v>
@@ -13562,14 +16141,14 @@
       <c r="R16" t="s">
         <v>241</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>242</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>243</v>
       </c>
-      <c r="AD16" t="s">
-        <v>539</v>
+      <c r="AE16" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="17">
@@ -13585,14 +16164,17 @@
       <c r="K17" t="s">
         <v>223</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="M17" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z17" t="s">
         <v>532</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>248</v>
       </c>
-      <c r="AD17" t="s">
-        <v>540</v>
+      <c r="AE17" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="18">
@@ -13608,11 +16190,11 @@
       <c r="K18" t="s">
         <v>231</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>247</v>
       </c>
-      <c r="AD18" t="s">
-        <v>541</v>
+      <c r="AE18" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="19">
@@ -13628,11 +16210,11 @@
       <c r="K19" t="s">
         <v>239</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>252</v>
       </c>
-      <c r="AD19" t="s">
-        <v>200</v>
+      <c r="AE19" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="20">
@@ -13648,11 +16230,11 @@
       <c r="K20" t="s">
         <v>246</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>256</v>
       </c>
-      <c r="AD20" t="s">
-        <v>210</v>
+      <c r="AE20" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="21">
@@ -13668,11 +16250,11 @@
       <c r="K21" t="s">
         <v>251</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>260</v>
       </c>
-      <c r="AD21" t="s">
-        <v>219</v>
+      <c r="AE21" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="22">
@@ -13680,7 +16262,7 @@
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>265</v>
+        <v>581</v>
       </c>
       <c r="G22" t="s">
         <v>266</v>
@@ -13688,8 +16270,11 @@
       <c r="K22" t="s">
         <v>255</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>523</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -13697,7 +16282,7 @@
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G23" t="s">
         <v>270</v>
@@ -13705,8 +16290,11 @@
       <c r="K23" t="s">
         <v>259</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>268</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="24">
@@ -13714,7 +16302,7 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G24" t="s">
         <v>274</v>
@@ -13722,16 +16310,19 @@
       <c r="K24" t="s">
         <v>263</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>272</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>580</v>
       </c>
       <c r="E25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G25" t="s">
         <v>278</v>
@@ -13739,16 +16330,19 @@
       <c r="K25" t="s">
         <v>566</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>276</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G26" t="s">
         <v>282</v>
@@ -13756,16 +16350,19 @@
       <c r="K26" t="s">
         <v>267</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>280</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G27" t="s">
         <v>285</v>
@@ -13773,16 +16370,19 @@
       <c r="K27" t="s">
         <v>271</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>283</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G28" t="s">
         <v>288</v>
@@ -13790,16 +16390,16 @@
       <c r="K28" t="s">
         <v>275</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G29" t="s">
         <v>291</v>
@@ -13807,722 +16407,747 @@
       <c r="K29" t="s">
         <v>279</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G30" t="s">
         <v>294</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
       <c r="E31" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G31" t="s">
         <v>297</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G32" t="s">
         <v>300</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G33" t="s">
         <v>547</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G34" t="s">
         <v>303</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G35" t="s">
         <v>306</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G36" t="s">
         <v>309</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G37" t="s">
         <v>312</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G38" t="s">
         <v>315</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>317</v>
+      </c>
       <c r="G39" t="s">
         <v>318</v>
       </c>
-      <c r="Y39" t="s">
-        <v>319</v>
+      <c r="Z39" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
         <v>320</v>
       </c>
-      <c r="Y40" t="s">
-        <v>321</v>
+      <c r="Z40" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
         <v>322</v>
       </c>
-      <c r="Y41" t="s">
-        <v>323</v>
+      <c r="Z41" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>325</v>
+        <v>583</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>331</v>
+        <v>328</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>335</v>
+        <v>332</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>337</v>
+        <v>334</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>339</v>
+        <v>336</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>341</v>
+        <v>338</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>510</v>
+        <v>342</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>345</v>
+        <v>344</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>347</v>
+        <v>346</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>351</v>
+        <v>350</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>356</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>355</v>
+        <v>584</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>357</v>
+        <v>354</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>363</v>
+        <v>360</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>365</v>
+        <v>362</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>367</v>
+        <v>364</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>369</v>
+        <v>366</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>371</v>
+        <v>368</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>373</v>
+        <v>370</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>375</v>
+        <v>372</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>377</v>
+        <v>374</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>379</v>
+        <v>567</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>381</v>
+        <v>378</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>383</v>
+        <v>380</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>385</v>
+        <v>382</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>548</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>387</v>
+        <v>384</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>389</v>
+        <v>386</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>391</v>
+        <v>548</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>393</v>
+        <v>388</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>395</v>
+        <v>390</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>397</v>
+        <v>392</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>533</v>
+        <v>394</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>399</v>
+        <v>396</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>401</v>
+        <v>398</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>403</v>
+        <v>400</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>524</v>
+        <v>402</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>407</v>
+        <v>406</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>409</v>
+        <v>568</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>414</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>411</v>
+        <v>408</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>413</v>
+        <v>410</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>415</v>
+        <v>412</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>417</v>
+        <v>414</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>422</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>419</v>
+        <v>416</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>421</v>
+        <v>418</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
         <v>426</v>
       </c>
-      <c r="Y94" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
+      <c r="Z97" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="96">
-      <c r="Y96" t="s">
+    <row r="98">
+      <c r="Z98" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="97">
-      <c r="Y97" t="s">
+    <row r="99">
+      <c r="Z99" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="98">
-      <c r="Y98" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Y99" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Y100" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Y101" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Y102" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Y103" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Y104" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Y105" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Y106" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Y107" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>455</v>
       </c>
     </row>

--- a/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
+++ b/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
@@ -31,7 +31,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -45,13 +45,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11280" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11831" uniqueCount="586">
   <si>
     <t>target</t>
   </si>
@@ -1824,6 +1824,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1834,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="332" x14ac:knownFonts="1">
+  <fonts count="348" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3935,8 +3938,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="580">
+  <fills count="607">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7219,8 +7323,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="579">
+  <borders count="611">
     <border>
       <left/>
       <right/>
@@ -13074,12 +13331,338 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="398">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -14200,52 +14783,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="555" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="555" fontId="316" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="558" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="558" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="561" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="561" fontId="319" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="564" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="564" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="321" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="322" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="324" fillId="570" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="325" fillId="561" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="326" fillId="573" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="327" fillId="573" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="328" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="329" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="330" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="331" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="323" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="570" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="561" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="573" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="573" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="582" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="585" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="588" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="591" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="597" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="588" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="600" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="600" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15223,7 +15854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15308,24 +15939,21 @@
         <v>20</v>
       </c>
       <c r="Y1" t="s">
-        <v>580</v>
+        <v>21</v>
       </c>
       <c r="Z1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -15403,24 +16031,21 @@
         <v>46</v>
       </c>
       <c r="Y2" t="s">
-        <v>582</v>
+        <v>47</v>
       </c>
       <c r="Z2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE2" t="s">
         <v>534</v>
       </c>
     </row>
@@ -15491,22 +16116,22 @@
       <c r="X3" t="s">
         <v>70</v>
       </c>
+      <c r="Y3" t="s">
+        <v>71</v>
+      </c>
       <c r="Z3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -15574,22 +16199,22 @@
       <c r="X4" t="s">
         <v>93</v>
       </c>
+      <c r="Y4" t="s">
+        <v>94</v>
+      </c>
       <c r="Z4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AA4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AB4" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AC4" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AD4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -15648,22 +16273,22 @@
       <c r="W5" t="s">
         <v>112</v>
       </c>
+      <c r="Y5" t="s">
+        <v>113</v>
+      </c>
       <c r="Z5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -15716,22 +16341,22 @@
       <c r="W6" t="s">
         <v>129</v>
       </c>
+      <c r="Y6" t="s">
+        <v>130</v>
+      </c>
       <c r="Z6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -15778,22 +16403,22 @@
       <c r="W7" t="s">
         <v>145</v>
       </c>
+      <c r="Y7" t="s">
+        <v>146</v>
+      </c>
       <c r="Z7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE7" t="s">
         <v>574</v>
       </c>
     </row>
@@ -15834,22 +16459,22 @@
       <c r="W8" t="s">
         <v>161</v>
       </c>
+      <c r="Y8" t="s">
+        <v>162</v>
+      </c>
       <c r="Z8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AB8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AD8" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE8" t="s">
         <v>575</v>
       </c>
     </row>
@@ -15890,13 +16515,13 @@
       <c r="W9" t="s">
         <v>177</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>178</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>179</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>576</v>
       </c>
     </row>
@@ -15931,13 +16556,13 @@
       <c r="T10" t="s">
         <v>187</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>188</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>189</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -15969,13 +16594,13 @@
       <c r="R11" t="s">
         <v>197</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>198</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>199</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>151</v>
       </c>
     </row>
@@ -16007,13 +16632,13 @@
       <c r="R12" t="s">
         <v>207</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>208</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>209</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>167</v>
       </c>
     </row>
@@ -16042,13 +16667,13 @@
       <c r="R13" t="s">
         <v>216</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>217</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>218</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>180</v>
       </c>
     </row>
@@ -16077,13 +16702,13 @@
       <c r="R14" t="s">
         <v>226</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>227</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>228</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>535</v>
       </c>
     </row>
@@ -16109,13 +16734,13 @@
       <c r="R15" t="s">
         <v>234</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>235</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>236</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>536</v>
       </c>
     </row>
@@ -16133,7 +16758,7 @@
         <v>213</v>
       </c>
       <c r="M16" t="s">
-        <v>232</v>
+        <v>585</v>
       </c>
       <c r="Q16" t="s">
         <v>531</v>
@@ -16141,13 +16766,13 @@
       <c r="R16" t="s">
         <v>241</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>242</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>243</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>537</v>
       </c>
     </row>
@@ -16165,15 +16790,15 @@
         <v>223</v>
       </c>
       <c r="M17" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y17" t="s">
         <v>532</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>248</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>538</v>
       </c>
     </row>
@@ -16190,10 +16815,13 @@
       <c r="K18" t="s">
         <v>231</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y18" t="s">
         <v>247</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>190</v>
       </c>
     </row>
@@ -16210,10 +16838,10 @@
       <c r="K19" t="s">
         <v>239</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>252</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>539</v>
       </c>
     </row>
@@ -16230,10 +16858,10 @@
       <c r="K20" t="s">
         <v>246</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>256</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>540</v>
       </c>
     </row>
@@ -16250,10 +16878,10 @@
       <c r="K21" t="s">
         <v>251</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>260</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>541</v>
       </c>
     </row>
@@ -16270,10 +16898,10 @@
       <c r="K22" t="s">
         <v>255</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>523</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>200</v>
       </c>
     </row>
@@ -16290,10 +16918,10 @@
       <c r="K23" t="s">
         <v>259</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>268</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>577</v>
       </c>
     </row>
@@ -16310,16 +16938,16 @@
       <c r="K24" t="s">
         <v>263</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>272</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>580</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
         <v>273</v>
@@ -16330,16 +16958,16 @@
       <c r="K25" t="s">
         <v>566</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>276</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
         <v>277</v>
@@ -16350,16 +16978,16 @@
       <c r="K26" t="s">
         <v>267</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>280</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
         <v>281</v>
@@ -16370,16 +16998,16 @@
       <c r="K27" t="s">
         <v>271</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>283</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -16390,13 +17018,13 @@
       <c r="K28" t="s">
         <v>275</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
         <v>287</v>
@@ -16407,13 +17035,13 @@
       <c r="K29" t="s">
         <v>279</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
         <v>290</v>
@@ -16421,21 +17049,18 @@
       <c r="G30" t="s">
         <v>294</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
       <c r="E31" t="s">
         <v>293</v>
       </c>
       <c r="G31" t="s">
         <v>297</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>295</v>
       </c>
     </row>
@@ -16446,7 +17071,7 @@
       <c r="G32" t="s">
         <v>300</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>298</v>
       </c>
     </row>
@@ -16457,7 +17082,7 @@
       <c r="G33" t="s">
         <v>547</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>301</v>
       </c>
     </row>
@@ -16468,7 +17093,7 @@
       <c r="G34" t="s">
         <v>303</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>304</v>
       </c>
     </row>
@@ -16479,7 +17104,7 @@
       <c r="G35" t="s">
         <v>306</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>307</v>
       </c>
     </row>
@@ -16490,7 +17115,7 @@
       <c r="G36" t="s">
         <v>309</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>310</v>
       </c>
     </row>
@@ -16501,7 +17126,7 @@
       <c r="G37" t="s">
         <v>312</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>313</v>
       </c>
     </row>
@@ -16512,7 +17137,7 @@
       <c r="G38" t="s">
         <v>315</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>316</v>
       </c>
     </row>
@@ -16523,7 +17148,7 @@
       <c r="G39" t="s">
         <v>318</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>572</v>
       </c>
     </row>
@@ -16531,7 +17156,7 @@
       <c r="G40" t="s">
         <v>320</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>319</v>
       </c>
     </row>
@@ -16539,7 +17164,7 @@
       <c r="G41" t="s">
         <v>322</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>321</v>
       </c>
     </row>
@@ -16547,7 +17172,7 @@
       <c r="G42" t="s">
         <v>583</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>323</v>
       </c>
     </row>
@@ -16555,7 +17180,7 @@
       <c r="G43" t="s">
         <v>324</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>325</v>
       </c>
     </row>
@@ -16563,7 +17188,7 @@
       <c r="G44" t="s">
         <v>326</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>327</v>
       </c>
     </row>
@@ -16571,7 +17196,7 @@
       <c r="G45" t="s">
         <v>328</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>329</v>
       </c>
     </row>
@@ -16579,7 +17204,7 @@
       <c r="G46" t="s">
         <v>330</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>331</v>
       </c>
     </row>
@@ -16587,7 +17212,7 @@
       <c r="G47" t="s">
         <v>332</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>333</v>
       </c>
     </row>
@@ -16595,7 +17220,7 @@
       <c r="G48" t="s">
         <v>334</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>335</v>
       </c>
     </row>
@@ -16603,7 +17228,7 @@
       <c r="G49" t="s">
         <v>336</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>337</v>
       </c>
     </row>
@@ -16611,7 +17236,7 @@
       <c r="G50" t="s">
         <v>338</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>573</v>
       </c>
     </row>
@@ -16619,7 +17244,7 @@
       <c r="G51" t="s">
         <v>340</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>339</v>
       </c>
     </row>
@@ -16627,7 +17252,7 @@
       <c r="G52" t="s">
         <v>342</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>341</v>
       </c>
     </row>
@@ -16635,7 +17260,7 @@
       <c r="G53" t="s">
         <v>344</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>343</v>
       </c>
     </row>
@@ -16643,7 +17268,7 @@
       <c r="G54" t="s">
         <v>346</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>510</v>
       </c>
     </row>
@@ -16651,7 +17276,7 @@
       <c r="G55" t="s">
         <v>348</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>345</v>
       </c>
     </row>
@@ -16659,7 +17284,7 @@
       <c r="G56" t="s">
         <v>350</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>347</v>
       </c>
     </row>
@@ -16667,7 +17292,7 @@
       <c r="G57" t="s">
         <v>352</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>349</v>
       </c>
     </row>
@@ -16675,7 +17300,7 @@
       <c r="G58" t="s">
         <v>584</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>351</v>
       </c>
     </row>
@@ -16683,7 +17308,7 @@
       <c r="G59" t="s">
         <v>354</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>353</v>
       </c>
     </row>
@@ -16691,7 +17316,7 @@
       <c r="G60" t="s">
         <v>356</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>355</v>
       </c>
     </row>
@@ -16699,7 +17324,7 @@
       <c r="G61" t="s">
         <v>358</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>357</v>
       </c>
     </row>
@@ -16707,7 +17332,7 @@
       <c r="G62" t="s">
         <v>360</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>359</v>
       </c>
     </row>
@@ -16715,7 +17340,7 @@
       <c r="G63" t="s">
         <v>362</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>361</v>
       </c>
     </row>
@@ -16723,7 +17348,7 @@
       <c r="G64" t="s">
         <v>364</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>363</v>
       </c>
     </row>
@@ -16731,7 +17356,7 @@
       <c r="G65" t="s">
         <v>366</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>365</v>
       </c>
     </row>
@@ -16739,7 +17364,7 @@
       <c r="G66" t="s">
         <v>368</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>367</v>
       </c>
     </row>
@@ -16747,7 +17372,7 @@
       <c r="G67" t="s">
         <v>370</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>369</v>
       </c>
     </row>
@@ -16755,7 +17380,7 @@
       <c r="G68" t="s">
         <v>372</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>371</v>
       </c>
     </row>
@@ -16763,7 +17388,7 @@
       <c r="G69" t="s">
         <v>374</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>373</v>
       </c>
     </row>
@@ -16771,7 +17396,7 @@
       <c r="G70" t="s">
         <v>567</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>375</v>
       </c>
     </row>
@@ -16779,7 +17404,7 @@
       <c r="G71" t="s">
         <v>378</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>377</v>
       </c>
     </row>
@@ -16787,7 +17412,7 @@
       <c r="G72" t="s">
         <v>380</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>379</v>
       </c>
     </row>
@@ -16795,7 +17420,7 @@
       <c r="G73" t="s">
         <v>382</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>381</v>
       </c>
     </row>
@@ -16803,7 +17428,7 @@
       <c r="G74" t="s">
         <v>384</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>383</v>
       </c>
     </row>
@@ -16811,7 +17436,7 @@
       <c r="G75" t="s">
         <v>386</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>385</v>
       </c>
     </row>
@@ -16819,7 +17444,7 @@
       <c r="G76" t="s">
         <v>548</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>387</v>
       </c>
     </row>
@@ -16827,7 +17452,7 @@
       <c r="G77" t="s">
         <v>388</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>389</v>
       </c>
     </row>
@@ -16835,7 +17460,7 @@
       <c r="G78" t="s">
         <v>390</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>391</v>
       </c>
     </row>
@@ -16843,7 +17468,7 @@
       <c r="G79" t="s">
         <v>392</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>393</v>
       </c>
     </row>
@@ -16851,7 +17476,7 @@
       <c r="G80" t="s">
         <v>394</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>395</v>
       </c>
     </row>
@@ -16859,7 +17484,7 @@
       <c r="G81" t="s">
         <v>396</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>397</v>
       </c>
     </row>
@@ -16867,7 +17492,7 @@
       <c r="G82" t="s">
         <v>398</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>533</v>
       </c>
     </row>
@@ -16875,7 +17500,7 @@
       <c r="G83" t="s">
         <v>400</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>399</v>
       </c>
     </row>
@@ -16883,7 +17508,7 @@
       <c r="G84" t="s">
         <v>402</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>401</v>
       </c>
     </row>
@@ -16891,7 +17516,7 @@
       <c r="G85" t="s">
         <v>404</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>403</v>
       </c>
     </row>
@@ -16899,7 +17524,7 @@
       <c r="G86" t="s">
         <v>406</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>524</v>
       </c>
     </row>
@@ -16907,7 +17532,7 @@
       <c r="G87" t="s">
         <v>568</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>405</v>
       </c>
     </row>
@@ -16915,7 +17540,7 @@
       <c r="G88" t="s">
         <v>408</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>407</v>
       </c>
     </row>
@@ -16923,7 +17548,7 @@
       <c r="G89" t="s">
         <v>410</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>409</v>
       </c>
     </row>
@@ -16931,7 +17556,7 @@
       <c r="G90" t="s">
         <v>412</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>411</v>
       </c>
     </row>
@@ -16939,7 +17564,7 @@
       <c r="G91" t="s">
         <v>414</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>413</v>
       </c>
     </row>
@@ -16947,7 +17572,7 @@
       <c r="G92" t="s">
         <v>416</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>415</v>
       </c>
     </row>
@@ -16955,7 +17580,7 @@
       <c r="G93" t="s">
         <v>418</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>417</v>
       </c>
     </row>
@@ -16963,7 +17588,7 @@
       <c r="G94" t="s">
         <v>420</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>419</v>
       </c>
     </row>
@@ -16971,7 +17596,7 @@
       <c r="G95" t="s">
         <v>422</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>421</v>
       </c>
     </row>
@@ -16979,7 +17604,7 @@
       <c r="G96" t="s">
         <v>424</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>423</v>
       </c>
     </row>
@@ -16987,167 +17612,167 @@
       <c r="G97" t="s">
         <v>426</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>455</v>
       </c>
     </row>

--- a/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
+++ b/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
@@ -21,40 +21,41 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11831" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14620" uniqueCount="598">
   <si>
     <t>target</t>
   </si>
@@ -1827,6 +1828,42 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1871,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="348" x14ac:knownFonts="1">
+  <fonts count="428" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4039,8 +4076,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="607">
+  <fills count="742">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7476,8 +8018,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="611">
+  <borders count="771">
     <border>
       <left/>
       <right/>
@@ -13657,12 +14964,1642 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="478">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -14831,52 +17768,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="582" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="582" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="585" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="585" fontId="334" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="588" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="588" fontId="335" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="591" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="591" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="338" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="340" fillId="597" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="341" fillId="588" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="342" fillId="600" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="343" fillId="600" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="344" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="345" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="346" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="347" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="597" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="588" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="600" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="600" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="609" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="349" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="612" fontId="350" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="615" fontId="351" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="618" fontId="352" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="353" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="354" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="624" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="615" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="627" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="627" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="363" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="636" fontId="364" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="639" fontId="366" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="642" fontId="367" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="645" fontId="368" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="369" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="370" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="651" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="642" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="654" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="654" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="657" fontId="377" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="378" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="663" fontId="380" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="381" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="666" fontId="382" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="669" fontId="383" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="672" fontId="384" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="385" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="386" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="678" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="669" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="681" fontId="390" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="681" fontId="391" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="684" fontId="393" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="394" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="687" fontId="395" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="690" fontId="396" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="397" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="693" fontId="398" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="399" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="400" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="401" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="402" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="705" fontId="404" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="696" fontId="405" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="406" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="408" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="409" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="714" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="720" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="723" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="726" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="732" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="723" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="735" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="735" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="741" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15854,7 +19031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15879,81 +19056,84 @@
         <v>525</v>
       </c>
       <c r="E1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>551</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>511</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -15971,81 +19151,84 @@
         <v>526</v>
       </c>
       <c r="E2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>552</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>512</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>41</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>42</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>44</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>45</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>534</v>
       </c>
     </row>
@@ -16062,76 +19245,76 @@
       <c r="D3" t="s">
         <v>565</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>57</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>63</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>553</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>514</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>64</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>65</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>66</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>67</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>68</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>69</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>71</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>72</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>74</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>75</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -16145,82 +19328,82 @@
       <c r="D4" t="s">
         <v>527</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>78</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>79</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>80</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>81</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>82</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>83</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>84</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>85</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>86</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>554</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>513</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>87</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>88</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>89</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>90</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>91</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>92</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>93</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>94</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>95</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>96</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>97</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>592</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -16228,73 +19411,73 @@
       <c r="D5" t="s">
         <v>528</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>100</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>101</v>
       </c>
-      <c r="G5" t="s">
-        <v>102</v>
-      </c>
       <c r="H5" t="s">
+        <v>589</v>
+      </c>
+      <c r="I5" t="s">
         <v>103</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>569</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>104</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>105</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>106</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>564</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>107</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>108</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>109</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>110</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>111</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>112</v>
       </c>
-      <c r="Y5" t="s">
-        <v>113</v>
-      </c>
       <c r="Z5" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA5" t="s">
         <v>114</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>115</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>116</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>117</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -16302,1477 +19485,1513 @@
       <c r="D6" t="s">
         <v>529</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>120</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>542</v>
       </c>
-      <c r="G6" t="s">
-        <v>121</v>
-      </c>
       <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s">
         <v>122</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>123</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>30</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>124</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>558</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>125</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>126</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>127</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>128</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>129</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>130</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>131</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>132</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>133</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>134</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>136</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>137</v>
       </c>
-      <c r="G7" t="s">
-        <v>138</v>
-      </c>
       <c r="H7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" t="s">
         <v>139</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>570</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>140</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>35</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>559</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>141</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>142</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>143</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>144</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>145</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>146</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>147</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>148</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>149</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>150</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>152</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>153</v>
       </c>
-      <c r="G8" t="s">
-        <v>154</v>
-      </c>
       <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" t="s">
         <v>155</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>543</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>157</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>560</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>158</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>159</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>160</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>161</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>162</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>163</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>164</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>165</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>166</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>168</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>169</v>
       </c>
-      <c r="G9" t="s">
-        <v>170</v>
-      </c>
       <c r="H9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" t="s">
         <v>171</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>156</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>173</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>563</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>174</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>175</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>176</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>177</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>178</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>179</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
-        <v>181</v>
-      </c>
       <c r="H10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" t="s">
         <v>182</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>172</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>184</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>555</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>185</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>186</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>187</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>188</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>189</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" t="s">
-        <v>192</v>
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>595</v>
       </c>
       <c r="H11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" t="s">
         <v>193</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>544</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>195</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>556</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>196</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>197</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>198</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>199</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
         <v>201</v>
       </c>
-      <c r="G12" t="s">
-        <v>202</v>
-      </c>
       <c r="H12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" t="s">
         <v>203</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>183</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>571</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>557</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>206</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>207</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>208</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>209</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>61</v>
       </c>
-      <c r="G13" t="s">
-        <v>211</v>
-      </c>
       <c r="H13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" t="s">
         <v>212</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>194</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>205</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>215</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>216</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>217</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>218</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>551</v>
-      </c>
-      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
         <v>220</v>
       </c>
-      <c r="G14" t="s">
-        <v>221</v>
-      </c>
       <c r="H14" t="s">
+        <v>211</v>
+      </c>
+      <c r="I14" t="s">
         <v>222</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>204</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>214</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>225</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>226</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>227</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>228</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>511</v>
-      </c>
-      <c r="E15" t="s">
+        <v>551</v>
+      </c>
+      <c r="F15" t="s">
         <v>229</v>
       </c>
-      <c r="G15" t="s">
-        <v>230</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="H15" t="s">
+        <v>221</v>
+      </c>
+      <c r="L15" t="s">
         <v>545</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>224</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>530</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>234</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>235</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>236</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
+        <v>511</v>
+      </c>
+      <c r="F16" t="s">
         <v>237</v>
       </c>
-      <c r="G16" t="s">
-        <v>238</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="H16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" t="s">
         <v>213</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>585</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>531</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>241</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>242</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>243</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
         <v>244</v>
       </c>
-      <c r="G17" t="s">
-        <v>245</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="H17" t="s">
+        <v>238</v>
+      </c>
+      <c r="L17" t="s">
         <v>223</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>232</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>532</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>248</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
         <v>249</v>
       </c>
-      <c r="G18" t="s">
-        <v>250</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="H18" t="s">
+        <v>245</v>
+      </c>
+      <c r="L18" t="s">
         <v>231</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>240</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>247</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
         <v>253</v>
       </c>
-      <c r="G19" t="s">
-        <v>254</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="H19" t="s">
+        <v>250</v>
+      </c>
+      <c r="L19" t="s">
         <v>239</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>252</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
         <v>257</v>
       </c>
-      <c r="G20" t="s">
-        <v>258</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="H20" t="s">
+        <v>254</v>
+      </c>
+      <c r="L20" t="s">
         <v>246</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>256</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
         <v>261</v>
       </c>
-      <c r="G21" t="s">
-        <v>262</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="H21" t="s">
+        <v>258</v>
+      </c>
+      <c r="L21" t="s">
         <v>251</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>260</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
         <v>581</v>
       </c>
-      <c r="G22" t="s">
-        <v>266</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="H22" t="s">
+        <v>262</v>
+      </c>
+      <c r="L22" t="s">
         <v>255</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>523</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
         <v>265</v>
       </c>
-      <c r="G23" t="s">
-        <v>270</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="H23" t="s">
+        <v>266</v>
+      </c>
+      <c r="L23" t="s">
         <v>259</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>268</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
         <v>269</v>
       </c>
-      <c r="G24" t="s">
-        <v>274</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="H24" t="s">
+        <v>270</v>
+      </c>
+      <c r="L24" t="s">
         <v>263</v>
       </c>
-      <c r="Y24" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD24" t="s">
+      <c r="Z24" t="s">
+        <v>586</v>
+      </c>
+      <c r="AE24" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
         <v>273</v>
       </c>
-      <c r="G25" t="s">
-        <v>278</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="H25" t="s">
+        <v>274</v>
+      </c>
+      <c r="L25" t="s">
         <v>566</v>
       </c>
-      <c r="Y25" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD25" t="s">
+      <c r="Z25" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE25" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
         <v>277</v>
       </c>
-      <c r="G26" t="s">
-        <v>282</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="H26" t="s">
+        <v>278</v>
+      </c>
+      <c r="L26" t="s">
         <v>267</v>
       </c>
-      <c r="Y26" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="Z26" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE26" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
         <v>281</v>
       </c>
-      <c r="G27" t="s">
-        <v>285</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="H27" t="s">
+        <v>282</v>
+      </c>
+      <c r="L27" t="s">
         <v>271</v>
       </c>
-      <c r="Y27" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD27" t="s">
+      <c r="Z27" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE27" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="G28" t="s">
-        <v>288</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="H28" t="s">
+        <v>285</v>
+      </c>
+      <c r="L28" t="s">
         <v>275</v>
       </c>
-      <c r="Y28" t="s">
-        <v>286</v>
+      <c r="Z28" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
         <v>287</v>
       </c>
-      <c r="G29" t="s">
-        <v>291</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="H29" t="s">
+        <v>288</v>
+      </c>
+      <c r="L29" t="s">
         <v>279</v>
       </c>
-      <c r="Y29" t="s">
-        <v>289</v>
+      <c r="Z29" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>290</v>
+      </c>
+      <c r="H30" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="E30" t="s">
-        <v>290</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F31" t="s">
+        <v>293</v>
+      </c>
+      <c r="H31" t="s">
         <v>294</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z31" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="31">
-      <c r="E31" t="s">
-        <v>293</v>
-      </c>
-      <c r="G31" t="s">
+    <row r="32">
+      <c r="F32" t="s">
+        <v>296</v>
+      </c>
+      <c r="H32" t="s">
         <v>297</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z32" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="32">
-      <c r="E32" t="s">
-        <v>296</v>
-      </c>
-      <c r="G32" t="s">
+    <row r="33">
+      <c r="F33" t="s">
+        <v>299</v>
+      </c>
+      <c r="H33" t="s">
         <v>300</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z33" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="33">
-      <c r="E33" t="s">
-        <v>299</v>
-      </c>
-      <c r="G33" t="s">
+    <row r="34">
+      <c r="F34" t="s">
+        <v>302</v>
+      </c>
+      <c r="H34" t="s">
         <v>547</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z34" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
+        <v>305</v>
+      </c>
+      <c r="H35" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z35" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="34">
-      <c r="E34" t="s">
-        <v>302</v>
-      </c>
-      <c r="G34" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y34" t="s">
+    <row r="36">
+      <c r="F36" t="s">
+        <v>308</v>
+      </c>
+      <c r="H36" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z36" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="35">
-      <c r="E35" t="s">
-        <v>305</v>
-      </c>
-      <c r="G35" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y35" t="s">
+    <row r="37">
+      <c r="F37" t="s">
+        <v>311</v>
+      </c>
+      <c r="H37" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z37" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="36">
-      <c r="E36" t="s">
-        <v>308</v>
-      </c>
-      <c r="G36" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y36" t="s">
+    <row r="38">
+      <c r="F38" t="s">
+        <v>314</v>
+      </c>
+      <c r="H38" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z38" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37">
-      <c r="E37" t="s">
-        <v>311</v>
-      </c>
-      <c r="G37" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y37" t="s">
+    <row r="39">
+      <c r="F39" t="s">
+        <v>317</v>
+      </c>
+      <c r="H39" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z39" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="38">
-      <c r="E38" t="s">
-        <v>314</v>
-      </c>
-      <c r="G38" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y38" t="s">
+    <row r="40">
+      <c r="H40" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="39">
-      <c r="E39" t="s">
-        <v>317</v>
-      </c>
-      <c r="G39" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" t="s">
+    <row r="41">
+      <c r="H41" t="s">
         <v>320</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z41" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="H42" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z42" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="41">
-      <c r="G41" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y41" t="s">
+    <row r="43">
+      <c r="H43" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z43" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="42">
-      <c r="G42" t="s">
-        <v>583</v>
-      </c>
-      <c r="Y42" t="s">
+    <row r="44">
+      <c r="H44" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z44" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="43">
-      <c r="G43" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y43" t="s">
+    <row r="45">
+      <c r="H45" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z45" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="44">
-      <c r="G44" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y44" t="s">
+    <row r="46">
+      <c r="H46" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z46" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="45">
-      <c r="G45" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y45" t="s">
+    <row r="47">
+      <c r="H47" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z47" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="46">
-      <c r="G46" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y46" t="s">
+    <row r="48">
+      <c r="H48" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z48" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="47">
-      <c r="G47" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y47" t="s">
+    <row r="49">
+      <c r="H49" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="48">
-      <c r="G48" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y48" t="s">
+    <row r="50">
+      <c r="H50" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z50" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="49">
-      <c r="G49" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y49" t="s">
+    <row r="51">
+      <c r="H51" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z51" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="50">
-      <c r="G50" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y50" t="s">
+    <row r="52">
+      <c r="H52" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z52" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="51">
-      <c r="G51" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y51" t="s">
+    <row r="53">
+      <c r="H53" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z53" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="52">
-      <c r="G52" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y52" t="s">
+    <row r="54">
+      <c r="H54" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z54" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="53">
-      <c r="G53" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y53" t="s">
+    <row r="55">
+      <c r="H55" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z55" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="54">
-      <c r="G54" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y54" t="s">
+    <row r="56">
+      <c r="H56" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z56" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="55">
-      <c r="G55" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y55" t="s">
+    <row r="57">
+      <c r="H57" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z57" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="56">
-      <c r="G56" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y56" t="s">
+    <row r="58">
+      <c r="H58" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z58" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="57">
-      <c r="G57" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y57" t="s">
+    <row r="59">
+      <c r="H59" t="s">
+        <v>584</v>
+      </c>
+      <c r="Z59" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="58">
-      <c r="G58" t="s">
-        <v>584</v>
-      </c>
-      <c r="Y58" t="s">
+    <row r="60">
+      <c r="H60" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z60" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="59">
-      <c r="G59" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y59" t="s">
+    <row r="61">
+      <c r="H61" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z61" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="60">
-      <c r="G60" t="s">
-        <v>356</v>
-      </c>
-      <c r="Y60" t="s">
+    <row r="62">
+      <c r="H62" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z62" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="61">
-      <c r="G61" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y61" t="s">
+    <row r="63">
+      <c r="H63" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z63" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="62">
-      <c r="G62" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y62" t="s">
+    <row r="64">
+      <c r="H64" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z64" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="63">
-      <c r="G63" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y63" t="s">
+    <row r="65">
+      <c r="H65" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z65" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="64">
-      <c r="G64" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y64" t="s">
+    <row r="66">
+      <c r="H66" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z66" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="65">
-      <c r="G65" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y65" t="s">
+    <row r="67">
+      <c r="H67" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z67" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66">
-      <c r="G66" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y66" t="s">
+    <row r="68">
+      <c r="H68" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z68" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="67">
-      <c r="G67" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y67" t="s">
+    <row r="69">
+      <c r="H69" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z69" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="68">
-      <c r="G68" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y68" t="s">
+    <row r="70">
+      <c r="H70" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z70" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="69">
-      <c r="G69" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y69" t="s">
+    <row r="71">
+      <c r="H71" t="s">
+        <v>567</v>
+      </c>
+      <c r="Z71" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="70">
-      <c r="G70" t="s">
-        <v>567</v>
-      </c>
-      <c r="Y70" t="s">
+    <row r="72">
+      <c r="H72" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z72" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="71">
-      <c r="G71" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y71" t="s">
+    <row r="73">
+      <c r="H73" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z73" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="72">
-      <c r="G72" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y72" t="s">
+    <row r="74">
+      <c r="H74" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z74" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="73">
-      <c r="G73" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y73" t="s">
+    <row r="75">
+      <c r="H75" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z75" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="74">
-      <c r="G74" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y74" t="s">
+    <row r="76">
+      <c r="H76" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z76" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="75">
-      <c r="G75" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y75" t="s">
+    <row r="77">
+      <c r="H77" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z77" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="76">
-      <c r="G76" t="s">
-        <v>548</v>
-      </c>
-      <c r="Y76" t="s">
+    <row r="78">
+      <c r="H78" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z78" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="77">
-      <c r="G77" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y77" t="s">
+    <row r="79">
+      <c r="H79" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z79" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="78">
-      <c r="G78" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y78" t="s">
+    <row r="80">
+      <c r="H80" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z80" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="79">
-      <c r="G79" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y79" t="s">
+    <row r="81">
+      <c r="H81" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z81" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="80">
-      <c r="G80" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y80" t="s">
+    <row r="82">
+      <c r="H82" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z82" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="81">
-      <c r="G81" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y81" t="s">
+    <row r="83">
+      <c r="H83" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z83" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="82">
-      <c r="G82" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y82" t="s">
+    <row r="84">
+      <c r="H84" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z84" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="83">
-      <c r="G83" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y83" t="s">
+    <row r="85">
+      <c r="H85" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z85" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="84">
-      <c r="G84" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y84" t="s">
+    <row r="86">
+      <c r="H86" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z86" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="85">
-      <c r="G85" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y85" t="s">
+    <row r="87">
+      <c r="H87" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z87" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="86">
-      <c r="G86" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y86" t="s">
+    <row r="88">
+      <c r="H88" t="s">
+        <v>568</v>
+      </c>
+      <c r="Z88" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="87">
-      <c r="G87" t="s">
-        <v>568</v>
-      </c>
-      <c r="Y87" t="s">
+    <row r="89">
+      <c r="H89" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z89" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="88">
-      <c r="G88" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y88" t="s">
+    <row r="90">
+      <c r="H90" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z90" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="89">
-      <c r="G89" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y89" t="s">
+    <row r="91">
+      <c r="H91" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z91" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="90">
-      <c r="G90" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y90" t="s">
+    <row r="92">
+      <c r="H92" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z92" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="91">
-      <c r="G91" t="s">
-        <v>414</v>
-      </c>
-      <c r="Y91" t="s">
+    <row r="93">
+      <c r="H93" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="H94" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="H95" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z95" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="92">
-      <c r="G92" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y92" t="s">
+    <row r="96">
+      <c r="H96" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z96" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="93">
-      <c r="G93" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y93" t="s">
+    <row r="97">
+      <c r="H97" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z97" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="94">
-      <c r="G94" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y94" t="s">
+    <row r="98">
+      <c r="H98" t="s">
+        <v>426</v>
+      </c>
+      <c r="Z98" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="95">
-      <c r="G95" t="s">
-        <v>422</v>
-      </c>
-      <c r="Y95" t="s">
+    <row r="99">
+      <c r="Z99" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="96">
-      <c r="G96" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y96" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="97">
-      <c r="G97" t="s">
-        <v>426</v>
-      </c>
-      <c r="Y97" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="98">
-      <c r="Y98" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Y99" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Y100" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Y101" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Y102" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Y103" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Y104" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Y105" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Y106" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Y107" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Z128" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>455</v>
       </c>
     </row>

--- a/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
+++ b/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14620" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15745" uniqueCount="603">
   <si>
     <t>target</t>
   </si>
@@ -1864,6 +1864,21 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1886,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="428" x14ac:knownFonts="1">
+  <fonts count="460" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4581,8 +4596,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="742">
+  <fills count="796">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8783,8 +9000,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="771">
+  <borders count="835">
     <border>
       <left/>
       <right/>
@@ -16594,12 +17117,664 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="478">
+  <cellXfs count="510">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -18008,52 +19183,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="714" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="717" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="720" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="720" fontId="414" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="723" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="723" fontId="415" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="726" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="726" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="417" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="729" fontId="418" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="420" fillId="732" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="421" fillId="723" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="422" fillId="735" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="423" fillId="735" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="424" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="425" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="426" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="427" fillId="741" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="732" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="723" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="735" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="735" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="738" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="741" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="744" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="747" fontId="430" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="750" fontId="431" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="790" fillId="753" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="433" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="756" fontId="434" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="759" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="750" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="762" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="762" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="441" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="768" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="771" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="774" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="777" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="780" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="786" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="777" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="789" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="789" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19347,7 +20618,7 @@
         <v>83</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>601</v>
       </c>
       <c r="M4" t="s">
         <v>85</v>
@@ -19383,7 +20654,7 @@
         <v>93</v>
       </c>
       <c r="Z4" t="s">
-        <v>94</v>
+        <v>602</v>
       </c>
       <c r="AA4" t="s">
         <v>95</v>
@@ -19430,7 +20701,7 @@
         <v>104</v>
       </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="N5" t="s">
         <v>106</v>
@@ -19501,7 +20772,7 @@
         <v>123</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s">
         <v>124</v>
@@ -19563,7 +20834,7 @@
         <v>570</v>
       </c>
       <c r="L7" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s">
         <v>35</v>
@@ -19622,7 +20893,7 @@
         <v>155</v>
       </c>
       <c r="L8" t="s">
-        <v>543</v>
+        <v>140</v>
       </c>
       <c r="N8" t="s">
         <v>157</v>
@@ -19678,7 +20949,7 @@
         <v>171</v>
       </c>
       <c r="L9" t="s">
-        <v>156</v>
+        <v>543</v>
       </c>
       <c r="N9" t="s">
         <v>173</v>
@@ -19722,7 +20993,7 @@
         <v>182</v>
       </c>
       <c r="L10" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="N10" t="s">
         <v>184</v>
@@ -19763,7 +21034,7 @@
         <v>193</v>
       </c>
       <c r="L11" t="s">
-        <v>544</v>
+        <v>172</v>
       </c>
       <c r="N11" t="s">
         <v>195</v>
@@ -19801,7 +21072,7 @@
         <v>203</v>
       </c>
       <c r="L12" t="s">
-        <v>183</v>
+        <v>544</v>
       </c>
       <c r="N12" t="s">
         <v>571</v>
@@ -19839,7 +21110,7 @@
         <v>212</v>
       </c>
       <c r="L13" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="N13" t="s">
         <v>205</v>
@@ -19874,7 +21145,7 @@
         <v>222</v>
       </c>
       <c r="L14" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="N14" t="s">
         <v>214</v>
@@ -19906,7 +21177,7 @@
         <v>221</v>
       </c>
       <c r="L15" t="s">
-        <v>545</v>
+        <v>204</v>
       </c>
       <c r="N15" t="s">
         <v>224</v>
@@ -19938,7 +21209,7 @@
         <v>230</v>
       </c>
       <c r="L16" t="s">
-        <v>213</v>
+        <v>545</v>
       </c>
       <c r="N16" t="s">
         <v>585</v>
@@ -19970,7 +21241,7 @@
         <v>238</v>
       </c>
       <c r="L17" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="N17" t="s">
         <v>232</v>
@@ -19996,7 +21267,7 @@
         <v>245</v>
       </c>
       <c r="L18" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="N18" t="s">
         <v>240</v>
@@ -20013,13 +21284,13 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>253</v>
+        <v>600</v>
       </c>
       <c r="H19" t="s">
         <v>250</v>
       </c>
       <c r="L19" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="Z19" t="s">
         <v>252</v>
@@ -20033,13 +21304,13 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H20" t="s">
         <v>254</v>
       </c>
       <c r="L20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Z20" t="s">
         <v>256</v>
@@ -20053,13 +21324,13 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H21" t="s">
         <v>258</v>
       </c>
       <c r="L21" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Z21" t="s">
         <v>260</v>
@@ -20073,13 +21344,13 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>581</v>
+        <v>261</v>
       </c>
       <c r="H22" t="s">
         <v>262</v>
       </c>
       <c r="L22" t="s">
-        <v>255</v>
+        <v>599</v>
       </c>
       <c r="Z22" t="s">
         <v>523</v>
@@ -20093,13 +21364,13 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>265</v>
+        <v>581</v>
       </c>
       <c r="H23" t="s">
         <v>266</v>
       </c>
       <c r="L23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Z23" t="s">
         <v>268</v>
@@ -20113,13 +21384,13 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H24" t="s">
         <v>270</v>
       </c>
       <c r="L24" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Z24" t="s">
         <v>586</v>
@@ -20133,13 +21404,13 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H25" t="s">
         <v>274</v>
       </c>
       <c r="L25" t="s">
-        <v>566</v>
+        <v>263</v>
       </c>
       <c r="Z25" t="s">
         <v>272</v>
@@ -20153,13 +21424,13 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H26" t="s">
         <v>278</v>
       </c>
       <c r="L26" t="s">
-        <v>267</v>
+        <v>566</v>
       </c>
       <c r="Z26" t="s">
         <v>276</v>
@@ -20173,13 +21444,13 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H27" t="s">
         <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Z27" t="s">
         <v>280</v>
@@ -20193,13 +21464,13 @@
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H28" t="s">
         <v>285</v>
       </c>
       <c r="L28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Z28" t="s">
         <v>283</v>
@@ -20210,13 +21481,13 @@
         <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H29" t="s">
         <v>288</v>
       </c>
       <c r="L29" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Z29" t="s">
         <v>286</v>
@@ -20227,10 +21498,13 @@
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H30" t="s">
         <v>291</v>
+      </c>
+      <c r="L30" t="s">
+        <v>279</v>
       </c>
       <c r="Z30" t="s">
         <v>289</v>
@@ -20241,7 +21515,7 @@
         <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H31" t="s">
         <v>294</v>
@@ -20252,7 +21526,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H32" t="s">
         <v>297</v>
@@ -20263,7 +21537,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H33" t="s">
         <v>300</v>
@@ -20274,7 +21548,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H34" t="s">
         <v>547</v>
@@ -20285,7 +21559,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H35" t="s">
         <v>303</v>
@@ -20296,7 +21570,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H36" t="s">
         <v>306</v>
@@ -20307,7 +21581,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H37" t="s">
         <v>309</v>
@@ -20318,7 +21592,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H38" t="s">
         <v>312</v>
@@ -20329,7 +21603,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H39" t="s">
         <v>315</v>
@@ -20339,6 +21613,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>317</v>
+      </c>
       <c r="H40" t="s">
         <v>318</v>
       </c>

--- a/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
+++ b/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
@@ -21,13 +21,13 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15745" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16310" uniqueCount="606">
   <si>
     <t>target</t>
   </si>
@@ -1879,6 +1879,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1895,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="460" x14ac:knownFonts="1">
+  <fonts count="476" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4798,8 +4807,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="796">
+  <fills count="823">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9306,8 +9416,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="835">
+  <borders count="867">
     <border>
       <left/>
       <right/>
@@ -17769,12 +18032,338 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="510">
+  <cellXfs count="526">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -19279,52 +19868,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="768" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="771" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="771" fontId="444" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="774" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="774" fontId="446" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="777" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="777" fontId="447" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="780" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="780" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="449" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="450" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="452" fillId="786" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="453" fillId="777" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="454" fillId="789" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="455" fillId="789" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="456" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="457" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="458" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="459" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="786" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="777" fontId="453" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="789" fontId="454" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="789" fontId="455" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="780" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="792" fontId="457" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="780" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="795" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="798" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="801" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="804" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="807" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="813" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="804" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="816" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="816" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="819" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="822" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20302,7 +20939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20768,6 +21405,9 @@
       <c r="I6" t="s">
         <v>122</v>
       </c>
+      <c r="J6" t="s">
+        <v>603</v>
+      </c>
       <c r="K6" t="s">
         <v>123</v>
       </c>
@@ -21284,7 +21924,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>600</v>
+        <v>253</v>
       </c>
       <c r="H19" t="s">
         <v>250</v>
@@ -21304,7 +21944,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H20" t="s">
         <v>254</v>
@@ -21324,7 +21964,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H21" t="s">
         <v>258</v>
@@ -21344,7 +21984,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>261</v>
+        <v>581</v>
       </c>
       <c r="H22" t="s">
         <v>262</v>
@@ -21364,7 +22004,7 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>581</v>
+        <v>265</v>
       </c>
       <c r="H23" t="s">
         <v>266</v>
@@ -21384,7 +22024,7 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H24" t="s">
         <v>270</v>
@@ -21404,7 +22044,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H25" t="s">
         <v>274</v>
@@ -21424,7 +22064,7 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H26" t="s">
         <v>278</v>
@@ -21444,7 +22084,7 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H27" t="s">
         <v>282</v>
@@ -21464,7 +22104,7 @@
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H28" t="s">
         <v>285</v>
@@ -21481,7 +22121,7 @@
         <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H29" t="s">
         <v>288</v>
@@ -21498,7 +22138,7 @@
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H30" t="s">
         <v>291</v>
@@ -21515,7 +22155,7 @@
         <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H31" t="s">
         <v>294</v>
@@ -21526,7 +22166,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H32" t="s">
         <v>297</v>
@@ -21537,7 +22177,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H33" t="s">
         <v>300</v>
@@ -21548,7 +22188,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H34" t="s">
         <v>547</v>
@@ -21559,7 +22199,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H35" t="s">
         <v>303</v>
@@ -21570,7 +22210,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H36" t="s">
         <v>306</v>
@@ -21581,7 +22221,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H37" t="s">
         <v>309</v>
@@ -21592,7 +22232,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H38" t="s">
         <v>312</v>
@@ -21603,7 +22243,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H39" t="s">
         <v>315</v>
@@ -21613,9 +22253,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>317</v>
-      </c>
       <c r="H40" t="s">
         <v>318</v>
       </c>
@@ -22089,186 +22726,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>421</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>423</v>
+        <v>605</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>546</v>
+        <v>429</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>594</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>431</v>
+        <v>594</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>433</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>588</v>
+        <v>446</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>449</v>
+        <v>588</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>455</v>
       </c>
     </row>

--- a/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
+++ b/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16310" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16875" uniqueCount="606">
   <si>
     <t>target</t>
   </si>
@@ -1895,7 +1895,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="476" x14ac:knownFonts="1">
+  <fonts count="492" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4908,8 +4908,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="823">
+  <fills count="850">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9569,8 +9670,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="867">
+  <borders count="899">
     <border>
       <left/>
       <right/>
@@ -18358,12 +18612,338 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="526">
+  <cellXfs count="542">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -19916,52 +20496,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="795" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="798" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="798" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="461" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="801" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="846" fillId="801" fontId="462" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="804" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="804" fontId="463" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="807" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="807" fontId="464" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="465" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="810" fontId="466" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="468" fillId="813" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="469" fillId="804" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="470" fillId="816" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="471" fillId="816" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="472" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="473" fillId="819" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="474" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="475" fillId="822" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="813" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="804" fontId="469" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="816" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="816" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="807" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="819" fontId="473" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="807" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="822" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="825" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="828" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="831" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="834" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="840" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="831" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="843" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="843" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="849" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
+++ b/examples/external-program/artifact/script/RunDownloadSessionBat.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16875" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17440" uniqueCount="606">
   <si>
     <t>target</t>
   </si>
@@ -1895,7 +1895,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="492" x14ac:knownFonts="1">
+  <fonts count="508" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5009,8 +5009,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="850">
+  <fills count="877">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9823,8 +9924,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="899">
+  <borders count="931">
     <border>
       <left/>
       <right/>
@@ -18938,12 +19192,338 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="542">
+  <cellXfs count="558">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -20544,52 +21124,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="822" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="825" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="825" fontId="476" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="477" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="828" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="828" fontId="478" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="831" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="831" fontId="479" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="834" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="834" fontId="480" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="481" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="837" fontId="482" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="484" fillId="840" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="485" fillId="831" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="486" fillId="843" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="487" fillId="843" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="488" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="489" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="490" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="491" fillId="849" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="840" fontId="484" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="831" fontId="485" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="843" fontId="486" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="843" fontId="487" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="834" fontId="488" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="846" fontId="489" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="834" fontId="490" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="849" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="852" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="855" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="858" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="861" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="864" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="867" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="858" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="870" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="870" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="861" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="873" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="861" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="876" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
